--- a/Phase2/TestCases/Test Cases.xlsx
+++ b/Phase2/TestCases/Test Cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pipeline-Processor\Phase2\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1914F996-C179-42FF-AC00-EB5C564C9916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC347445-A7CC-4CFE-A6FD-C761EE7B284F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="430" yWindow="1220" windowWidth="18770" windowHeight="5510" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="Test Case3" sheetId="5" r:id="rId4"/>
     <sheet name="Test Case4" sheetId="6" r:id="rId5"/>
     <sheet name="Test Case5" sheetId="7" r:id="rId6"/>
+    <sheet name="Test Case6" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="130">
   <si>
     <t>ADD Rsrc Rdst</t>
   </si>
@@ -410,6 +411,27 @@
   </si>
   <si>
     <t>1100_010_001_xxxx_0011</t>
+  </si>
+  <si>
+    <t>07FFH</t>
+  </si>
+  <si>
+    <t>SP</t>
+  </si>
+  <si>
+    <t>PUSH R0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0110_000_xxx_xx_0000     </t>
+  </si>
+  <si>
+    <t>0111_0000_0000_0000</t>
+  </si>
+  <si>
+    <t>POP R7</t>
+  </si>
+  <si>
+    <t>xxx</t>
   </si>
 </sst>
 </file>
@@ -968,7 +990,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="88">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1017,6 +1039,9 @@
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1203,13 +1228,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1526,38 +1551,38 @@
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="3:24" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="30"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="32" t="s">
+      <c r="C2" s="31"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33" t="s">
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
       <c r="N2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="32" t="s">
+      <c r="O2" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="34"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="35"/>
     </row>
     <row r="3" spans="3:24" x14ac:dyDescent="0.35">
-      <c r="C3" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="D3" s="24"/>
+      <c r="C3" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="25"/>
       <c r="E3" s="3">
         <v>0</v>
       </c>
@@ -1602,10 +1627,10 @@
       </c>
     </row>
     <row r="4" spans="3:24" x14ac:dyDescent="0.35">
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="24"/>
+      <c r="D4" s="25"/>
       <c r="E4" s="3">
         <v>1</v>
       </c>
@@ -1650,10 +1675,10 @@
       </c>
     </row>
     <row r="5" spans="3:24" x14ac:dyDescent="0.35">
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="24"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="3">
         <v>1</v>
       </c>
@@ -1696,10 +1721,10 @@
       <c r="R5" s="4"/>
     </row>
     <row r="6" spans="3:24" x14ac:dyDescent="0.35">
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="D6" s="24"/>
+      <c r="D6" s="25"/>
       <c r="E6" s="3">
         <v>0</v>
       </c>
@@ -1744,10 +1769,10 @@
       </c>
     </row>
     <row r="7" spans="3:24" x14ac:dyDescent="0.35">
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="D7" s="24"/>
+      <c r="D7" s="25"/>
       <c r="E7" s="3">
         <v>1</v>
       </c>
@@ -1792,30 +1817,30 @@
       </c>
     </row>
     <row r="8" spans="3:24" x14ac:dyDescent="0.35">
-      <c r="C8" s="18" t="s">
+      <c r="C8" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="21"/>
-      <c r="G8" s="21"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="21"/>
-      <c r="J8" s="21"/>
-      <c r="K8" s="21"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="21"/>
-      <c r="N8" s="21"/>
-      <c r="O8" s="21"/>
-      <c r="P8" s="21"/>
-      <c r="Q8" s="21"/>
-      <c r="R8" s="22"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="22"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="22"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="22"/>
+      <c r="L8" s="22"/>
+      <c r="M8" s="22"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="23"/>
     </row>
     <row r="9" spans="3:24" x14ac:dyDescent="0.35">
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="24"/>
+      <c r="D9" s="25"/>
       <c r="E9" s="3">
         <v>0</v>
       </c>
@@ -1860,26 +1885,26 @@
       </c>
     </row>
     <row r="10" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="27" t="s">
+      <c r="C10" s="26"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="27"/>
+      <c r="H10" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="27" t="s">
+      <c r="I10" s="29"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="28"/>
-      <c r="M10" s="26"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="27"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="28"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="29"/>
+      <c r="O10" s="28"/>
+      <c r="P10" s="29"/>
+      <c r="Q10" s="29"/>
+      <c r="R10" s="30"/>
     </row>
     <row r="11" spans="3:24" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C11" s="9"/>
@@ -2061,77 +2086,77 @@
   <sheetData>
     <row r="1" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:24" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="62" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="64"/>
-      <c r="K2" s="51" t="s">
+      <c r="G2" s="64"/>
+      <c r="H2" s="65"/>
+      <c r="K2" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="52" t="s">
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="53"/>
-      <c r="Q2" s="54"/>
+      <c r="P2" s="54"/>
+      <c r="Q2" s="55"/>
     </row>
     <row r="3" spans="2:24" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="59"/>
+      <c r="G3" s="59"/>
+      <c r="H3" s="59"/>
       <c r="K3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="19" t="s">
+      <c r="L3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="19"/>
-      <c r="N3" s="48"/>
-      <c r="O3" s="55" t="s">
+      <c r="M3" s="20"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="56"/>
-      <c r="Q3" s="57"/>
+      <c r="P3" s="57"/>
+      <c r="Q3" s="58"/>
     </row>
     <row r="4" spans="2:24" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="55" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="56"/>
-      <c r="H4" s="57"/>
+      <c r="G4" s="57"/>
+      <c r="H4" s="58"/>
       <c r="K4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="19" t="s">
+      <c r="L4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="19"/>
-      <c r="N4" s="48"/>
+      <c r="M4" s="20"/>
+      <c r="N4" s="49"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
@@ -2140,24 +2165,24 @@
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="55" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="56" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="56"/>
-      <c r="H5" s="57"/>
+      <c r="G5" s="57"/>
+      <c r="H5" s="58"/>
       <c r="K5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="19" t="s">
+      <c r="L5" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="19"/>
-      <c r="N5" s="48"/>
+      <c r="M5" s="20"/>
+      <c r="N5" s="49"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -2166,22 +2191,22 @@
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="55" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="56"/>
-      <c r="H6" s="57"/>
+      <c r="G6" s="57"/>
+      <c r="H6" s="58"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="19" t="s">
+      <c r="L6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="19"/>
-      <c r="N6" s="48"/>
+      <c r="M6" s="20"/>
+      <c r="N6" s="49"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
@@ -2190,20 +2215,20 @@
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="58"/>
-      <c r="G7" s="58"/>
-      <c r="H7" s="58"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="59"/>
+      <c r="G7" s="59"/>
+      <c r="H7" s="59"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="19"/>
-      <c r="N7" s="48"/>
+      <c r="M7" s="20"/>
+      <c r="N7" s="49"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
@@ -2212,22 +2237,22 @@
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="55" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="56"/>
-      <c r="H8" s="57"/>
+      <c r="G8" s="57"/>
+      <c r="H8" s="58"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="19" t="s">
+      <c r="L8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="19"/>
-      <c r="N8" s="48"/>
+      <c r="M8" s="20"/>
+      <c r="N8" s="49"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -2236,22 +2261,22 @@
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="58"/>
-      <c r="G9" s="58"/>
-      <c r="H9" s="58"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
       <c r="K9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="19" t="s">
+      <c r="L9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="19"/>
-      <c r="N9" s="48"/>
+      <c r="M9" s="20"/>
+      <c r="N9" s="49"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
@@ -2260,20 +2285,20 @@
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="58"/>
-      <c r="G10" s="58"/>
-      <c r="H10" s="58"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="59"/>
+      <c r="H10" s="59"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="49" t="s">
+      <c r="L10" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="49"/>
-      <c r="N10" s="50"/>
+      <c r="M10" s="50"/>
+      <c r="N10" s="51"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
@@ -2281,59 +2306,59 @@
     <row r="11" spans="2:24" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="2:24" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="I16" s="30"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="32"/>
-      <c r="M16" s="32"/>
-      <c r="N16" s="32" t="s">
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="O16" s="32"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="33" t="s">
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
       <c r="T16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="U16" s="32" t="s">
+      <c r="U16" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="V16" s="32"/>
-      <c r="W16" s="32"/>
-      <c r="X16" s="34"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="33"/>
+      <c r="X16" s="35"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="41" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="42" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
       <c r="H17" t="s">
         <v>67</v>
       </c>
-      <c r="I17" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="J17" s="24"/>
+      <c r="I17" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="J17" s="25"/>
       <c r="K17" s="3">
         <v>0</v>
       </c>
@@ -2378,20 +2403,20 @@
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="41" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
-      <c r="I18" s="23" t="s">
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
+      <c r="I18" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="J18" s="24"/>
+      <c r="J18" s="25"/>
       <c r="K18" s="3">
         <v>1</v>
       </c>
@@ -2436,20 +2461,20 @@
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="41" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
-      <c r="I19" s="23" t="s">
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+      <c r="I19" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="J19" s="24"/>
+      <c r="J19" s="25"/>
       <c r="K19" s="3">
         <v>1</v>
       </c>
@@ -2492,20 +2517,20 @@
       <c r="X19" s="4"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="41" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="I20" s="23" t="s">
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+      <c r="I20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="J20" s="24"/>
+      <c r="J20" s="25"/>
       <c r="K20" s="3">
         <v>0</v>
       </c>
@@ -2550,20 +2575,20 @@
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="41" t="s">
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-      <c r="I21" s="23" t="s">
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="I21" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="J21" s="24"/>
+      <c r="J21" s="25"/>
       <c r="K21" s="3">
         <v>1</v>
       </c>
@@ -2608,53 +2633,53 @@
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="45"/>
-      <c r="D22" s="45"/>
-      <c r="E22" s="37" t="s">
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="39"/>
       <c r="H22" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="18" t="s">
+      <c r="I22" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="J22" s="19"/>
-      <c r="K22" s="20"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="21"/>
-      <c r="N22" s="21"/>
-      <c r="O22" s="21"/>
-      <c r="P22" s="21"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="22"/>
+      <c r="J22" s="20"/>
+      <c r="K22" s="21"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="23"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B23" s="43" t="s">
+      <c r="B23" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="41" t="s">
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
-      <c r="I23" s="23" t="s">
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="I23" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="24"/>
+      <c r="J23" s="25"/>
       <c r="K23" s="3">
         <v>0</v>
       </c>
@@ -2699,213 +2724,213 @@
       </c>
     </row>
     <row r="24" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="43" t="s">
+      <c r="B24" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="37"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="41" t="s">
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="27"/>
-      <c r="L24" s="28"/>
-      <c r="M24" s="26"/>
-      <c r="N24" s="27" t="s">
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="29"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="O24" s="28"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="27" t="s">
+      <c r="O24" s="29"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="R24" s="28"/>
-      <c r="S24" s="26"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="27"/>
       <c r="T24" s="7"/>
-      <c r="U24" s="27"/>
-      <c r="V24" s="28"/>
-      <c r="W24" s="28"/>
-      <c r="X24" s="29"/>
+      <c r="U24" s="28"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="30"/>
     </row>
     <row r="25" spans="2:24" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="41" t="s">
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="41" t="s">
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="45"/>
-      <c r="D27" s="45"/>
-      <c r="E27" s="37" t="s">
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="38" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="39"/>
       <c r="H27" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="41" t="s">
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B29" s="43" t="s">
+      <c r="B29" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="37"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="41" t="s">
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="43"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="41" t="s">
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="41" t="s">
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="43"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="45"/>
-      <c r="D32" s="45"/>
-      <c r="E32" s="37" t="s">
+      <c r="C32" s="46"/>
+      <c r="D32" s="46"/>
+      <c r="E32" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="F32" s="37"/>
-      <c r="G32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="39"/>
       <c r="H32" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="41" t="s">
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="43"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" s="43" t="s">
+      <c r="B34" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="37"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="41" t="s">
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="41" t="s">
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="43"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="41" t="s">
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F36" s="41"/>
-      <c r="G36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="43"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="45"/>
-      <c r="D37" s="45"/>
-      <c r="E37" s="37" t="s">
+      <c r="C37" s="46"/>
+      <c r="D37" s="46"/>
+      <c r="E37" s="38" t="s">
         <v>107</v>
       </c>
-      <c r="F37" s="37"/>
-      <c r="G37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="39"/>
       <c r="H37" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="46" t="s">
+      <c r="B38" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="35"/>
-      <c r="D38" s="35"/>
-      <c r="E38" s="35" t="s">
+      <c r="C38" s="36"/>
+      <c r="D38" s="36"/>
+      <c r="E38" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="37"/>
     </row>
     <row r="39" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
@@ -3027,153 +3052,153 @@
   <sheetData>
     <row r="1" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="62" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
-      <c r="Q2" s="51" t="s">
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="65"/>
+      <c r="Q2" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="77" t="s">
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="78"/>
-      <c r="W2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="80"/>
     </row>
     <row r="3" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="69"/>
-      <c r="H3" s="69"/>
-      <c r="I3" s="69"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="69"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
       <c r="Q3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="48"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="49"/>
     </row>
     <row r="4" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="70" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="71" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="70" t="s">
+      <c r="G4" s="72"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="71" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="71"/>
-      <c r="K4" s="72"/>
-      <c r="L4" s="73" t="s">
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
+      <c r="L4" s="74" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="74"/>
-      <c r="N4" s="75"/>
+      <c r="M4" s="75"/>
+      <c r="N4" s="76"/>
       <c r="Q4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="R4" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="19"/>
-      <c r="T4" s="48"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="49"/>
     </row>
     <row r="5" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="73" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
+      <c r="F5" s="74" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="74"/>
-      <c r="H5" s="75"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
+      <c r="G5" s="75"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
       <c r="Q5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="R5" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="19"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="55" t="s">
+      <c r="S5" s="20"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="V5" s="56"/>
-      <c r="W5" s="57"/>
+      <c r="V5" s="57"/>
+      <c r="W5" s="58"/>
     </row>
     <row r="6" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="69"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="70"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="19" t="s">
+      <c r="R6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="19"/>
-      <c r="T6" s="48"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="49"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
@@ -3182,26 +3207,26 @@
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="19" t="s">
+      <c r="R7" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="19"/>
-      <c r="T7" s="48"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="49"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
@@ -3210,26 +3235,26 @@
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="19" t="s">
+      <c r="R8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="19"/>
-      <c r="T8" s="48"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="49"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
@@ -3238,28 +3263,28 @@
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
       <c r="Q9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R9" s="19" t="s">
+      <c r="R9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S9" s="19"/>
-      <c r="T9" s="48"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="49"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
@@ -3268,26 +3293,26 @@
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="49" t="s">
+      <c r="R10" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="S10" s="49"/>
-      <c r="T10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="51"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
@@ -3295,56 +3320,56 @@
     <row r="11" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32" t="s">
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="33" t="s">
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
       <c r="Z16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AA16" s="32" t="s">
+      <c r="AA16" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="34"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="35"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="45" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="41" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="42" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="O17" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17" s="24"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="O17" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="25"/>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -3389,20 +3414,20 @@
       </c>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="45"/>
-      <c r="D18" s="45"/>
-      <c r="E18" s="41" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
-      <c r="O18" s="23" t="s">
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
+      <c r="O18" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="P18" s="24"/>
+      <c r="P18" s="25"/>
       <c r="Q18" s="3">
         <v>1</v>
       </c>
@@ -3447,20 +3472,20 @@
       </c>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="41" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
-      <c r="O19" s="23" t="s">
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+      <c r="O19" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="P19" s="24"/>
+      <c r="P19" s="25"/>
       <c r="Q19" s="3">
         <v>1</v>
       </c>
@@ -3503,20 +3528,20 @@
       <c r="AD19" s="4"/>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="41" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="O20" s="23" t="s">
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+      <c r="O20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="P20" s="24"/>
+      <c r="P20" s="25"/>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -3561,20 +3586,20 @@
       </c>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="41" t="s">
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-      <c r="O21" s="23" t="s">
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="O21" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P21" s="24"/>
+      <c r="P21" s="25"/>
       <c r="Q21" s="3">
         <v>1</v>
       </c>
@@ -3619,50 +3644,50 @@
       </c>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="41" t="s">
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="O22" s="18" t="s">
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="O22" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="22"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="23"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="45" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="41" t="s">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="42" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
-      <c r="O23" s="23" t="s">
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="O23" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="P23" s="24"/>
+      <c r="P23" s="25"/>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -3707,276 +3732,276 @@
       </c>
     </row>
     <row r="24" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="41" t="s">
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="42" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="27" t="s">
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="U24" s="28"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="27" t="s">
+      <c r="U24" s="29"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="26"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="27"/>
       <c r="Z24" s="7"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="29"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="30"/>
     </row>
     <row r="25" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="41" t="s">
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="41" t="s">
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="41" t="s">
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="43"/>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="41" t="s">
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="41" t="s">
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="43"/>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="41" t="s">
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="41" t="s">
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="43"/>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="41" t="s">
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="43"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="41" t="s">
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="43"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="45" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="41" t="s">
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="41" t="s">
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="43"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="41" t="s">
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F36" s="41"/>
-      <c r="G36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="43"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="41" t="s">
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="41"/>
-      <c r="G37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="43"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="41" t="s">
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="43"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="41" t="s">
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="42" t="s">
         <v>119</v>
       </c>
-      <c r="F39" s="41"/>
-      <c r="G39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="43"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B40" s="43" t="s">
+      <c r="B40" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="37"/>
-      <c r="D40" s="37"/>
-      <c r="E40" s="41" t="s">
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F40" s="41"/>
-      <c r="G40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="43"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B41" s="43" t="s">
+      <c r="B41" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="37"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="41" t="s">
+      <c r="C41" s="38"/>
+      <c r="D41" s="38"/>
+      <c r="E41" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="41"/>
-      <c r="G41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="43"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="37"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="41" t="s">
+      <c r="C42" s="38"/>
+      <c r="D42" s="38"/>
+      <c r="E42" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F42" s="41"/>
-      <c r="G42" s="42"/>
+      <c r="F42" s="42"/>
+      <c r="G42" s="43"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B43" s="43" t="s">
+      <c r="B43" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="37"/>
-      <c r="D43" s="37"/>
-      <c r="E43" s="41" t="s">
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="42" t="s">
         <v>108</v>
       </c>
-      <c r="F43" s="41"/>
-      <c r="G43" s="42"/>
+      <c r="F43" s="42"/>
+      <c r="G43" s="43"/>
     </row>
     <row r="44" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="65" t="s">
+      <c r="B44" s="66" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="66"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="67" t="s">
+      <c r="C44" s="67"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="68" t="s">
         <v>122</v>
       </c>
-      <c r="F44" s="67"/>
-      <c r="G44" s="68"/>
+      <c r="F44" s="68"/>
+      <c r="G44" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="121">
@@ -4123,148 +4148,148 @@
   <sheetData>
     <row r="1" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="62" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
-      <c r="Q2" s="51" t="s">
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="65"/>
+      <c r="Q2" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="77" t="s">
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="78"/>
-      <c r="W2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="80"/>
     </row>
     <row r="3" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="70" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
       <c r="Q3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="48"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="49"/>
     </row>
     <row r="4" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="70" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
       <c r="Q4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="R4" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="19"/>
-      <c r="T4" s="48"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="49"/>
     </row>
     <row r="5" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="81"/>
       <c r="G5" s="82"/>
       <c r="H5" s="82"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
       <c r="Q5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="R5" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="19"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
     </row>
     <row r="6" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="70" t="s">
+      <c r="D6" s="20"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="71"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="69" t="s">
+      <c r="G6" s="72"/>
+      <c r="H6" s="73"/>
+      <c r="I6" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="19" t="s">
+      <c r="R6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="19"/>
-      <c r="T6" s="48"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="49"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
@@ -4273,26 +4298,26 @@
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="19" t="s">
+      <c r="R7" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="19"/>
-      <c r="T7" s="48"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="49"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
@@ -4301,28 +4326,28 @@
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="69" t="s">
+      <c r="D8" s="20"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="70" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="19" t="s">
+      <c r="R8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="19"/>
-      <c r="T8" s="48"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="49"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
@@ -4331,28 +4356,28 @@
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
       <c r="Q9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R9" s="19" t="s">
+      <c r="R9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S9" s="19"/>
-      <c r="T9" s="48"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="49"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
@@ -4361,26 +4386,26 @@
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="49" t="s">
+      <c r="R10" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="S10" s="49"/>
-      <c r="T10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="51"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
@@ -4388,56 +4413,56 @@
     <row r="11" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32" t="s">
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="33" t="s">
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
       <c r="Z16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AA16" s="32" t="s">
+      <c r="AA16" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="34"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="35"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="45" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="41" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="O17" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17" s="24"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="O17" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="25"/>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -4482,20 +4507,20 @@
       </c>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="41" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
-      <c r="O18" s="23" t="s">
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
+      <c r="O18" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="P18" s="24"/>
+      <c r="P18" s="25"/>
       <c r="Q18" s="3">
         <v>1</v>
       </c>
@@ -4540,20 +4565,20 @@
       </c>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="41" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
-      <c r="O19" s="23" t="s">
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+      <c r="O19" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="P19" s="24"/>
+      <c r="P19" s="25"/>
       <c r="Q19" s="3">
         <v>1</v>
       </c>
@@ -4596,20 +4621,20 @@
       <c r="AD19" s="4"/>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="41" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="O20" s="23" t="s">
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+      <c r="O20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="P20" s="24"/>
+      <c r="P20" s="25"/>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -4654,20 +4679,20 @@
       </c>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="41" t="s">
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-      <c r="O21" s="23" t="s">
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="O21" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P21" s="24"/>
+      <c r="P21" s="25"/>
       <c r="Q21" s="3">
         <v>1</v>
       </c>
@@ -4712,50 +4737,50 @@
       </c>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="41" t="s">
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="O22" s="18" t="s">
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="O22" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="22"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="23"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="45" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="41" t="s">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
-      <c r="O23" s="23" t="s">
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="O23" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="P23" s="24"/>
+      <c r="P23" s="25"/>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -4800,43 +4825,43 @@
       </c>
     </row>
     <row r="24" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="83" t="s">
+      <c r="B24" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="85"/>
+      <c r="C24" s="85"/>
+      <c r="D24" s="86"/>
       <c r="E24" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="16"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="27" t="s">
+      <c r="O24" s="26"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="U24" s="28"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="27" t="s">
+      <c r="U24" s="29"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="26"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="27"/>
       <c r="Z24" s="7"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="29"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="30"/>
     </row>
     <row r="25" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="83" t="s">
+      <c r="B25" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="84"/>
-      <c r="D25" s="85"/>
+      <c r="C25" s="85"/>
+      <c r="D25" s="86"/>
       <c r="E25" s="15" t="s">
         <v>38</v>
       </c>
@@ -4844,11 +4869,11 @@
       <c r="G25" s="16"/>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B26" s="83" t="s">
+      <c r="B26" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="84"/>
-      <c r="D26" s="85"/>
+      <c r="C26" s="85"/>
+      <c r="D26" s="86"/>
       <c r="E26" s="15" t="s">
         <v>38</v>
       </c>
@@ -4856,11 +4881,11 @@
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B27" s="83" t="s">
+      <c r="B27" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="84"/>
-      <c r="D27" s="85"/>
+      <c r="C27" s="85"/>
+      <c r="D27" s="86"/>
       <c r="E27" s="15" t="s">
         <v>38</v>
       </c>
@@ -4868,11 +4893,11 @@
       <c r="G27" s="16"/>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="45" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="45"/>
-      <c r="D28" s="45"/>
+      <c r="C28" s="46"/>
+      <c r="D28" s="46"/>
       <c r="E28" s="15" t="s">
         <v>86</v>
       </c>
@@ -4880,11 +4905,11 @@
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B29" s="83" t="s">
+      <c r="B29" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="84"/>
-      <c r="D29" s="85"/>
+      <c r="C29" s="85"/>
+      <c r="D29" s="86"/>
       <c r="E29" s="15" t="s">
         <v>38</v>
       </c>
@@ -4892,11 +4917,11 @@
       <c r="G29" s="16"/>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B30" s="83" t="s">
+      <c r="B30" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="84"/>
-      <c r="D30" s="85"/>
+      <c r="C30" s="85"/>
+      <c r="D30" s="86"/>
       <c r="E30" s="15" t="s">
         <v>38</v>
       </c>
@@ -4904,11 +4929,11 @@
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B31" s="83" t="s">
+      <c r="B31" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="84"/>
-      <c r="D31" s="85"/>
+      <c r="C31" s="85"/>
+      <c r="D31" s="86"/>
       <c r="E31" s="15" t="s">
         <v>38</v>
       </c>
@@ -4916,11 +4941,11 @@
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B32" s="83" t="s">
+      <c r="B32" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="84"/>
-      <c r="D32" s="85"/>
+      <c r="C32" s="85"/>
+      <c r="D32" s="86"/>
       <c r="E32" s="15" t="s">
         <v>38</v>
       </c>
@@ -4928,11 +4953,11 @@
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="45" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="45"/>
-      <c r="D33" s="45"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="46"/>
       <c r="E33" s="15" t="s">
         <v>88</v>
       </c>
@@ -4940,11 +4965,11 @@
       <c r="G33" s="16"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="83" t="s">
+      <c r="B34" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="84"/>
-      <c r="D34" s="85"/>
+      <c r="C34" s="85"/>
+      <c r="D34" s="86"/>
       <c r="E34" s="15" t="s">
         <v>38</v>
       </c>
@@ -4952,11 +4977,11 @@
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="83" t="s">
+      <c r="B35" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="84"/>
-      <c r="D35" s="85"/>
+      <c r="C35" s="85"/>
+      <c r="D35" s="86"/>
       <c r="E35" s="15" t="s">
         <v>38</v>
       </c>
@@ -4964,11 +4989,11 @@
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="83" t="s">
+      <c r="B36" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="84"/>
-      <c r="D36" s="85"/>
+      <c r="C36" s="85"/>
+      <c r="D36" s="86"/>
       <c r="E36" s="15" t="s">
         <v>38</v>
       </c>
@@ -4976,11 +5001,11 @@
       <c r="G36" s="16"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="83" t="s">
+      <c r="B37" s="84" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="84"/>
-      <c r="D37" s="85"/>
+      <c r="C37" s="85"/>
+      <c r="D37" s="86"/>
       <c r="E37" s="15" t="s">
         <v>38</v>
       </c>
@@ -4988,16 +5013,16 @@
       <c r="G37" s="16"/>
     </row>
     <row r="38" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="65" t="s">
+      <c r="B38" s="66" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="66"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="67" t="s">
+      <c r="C38" s="67"/>
+      <c r="D38" s="67"/>
+      <c r="E38" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="67"/>
-      <c r="G38" s="68"/>
+      <c r="F38" s="68"/>
+      <c r="G38" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="94">
@@ -5077,6 +5102,8 @@
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="F3:H3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="R3:T3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="F4:H4"/>
     <mergeCell ref="I4:K4"/>
@@ -5093,8 +5120,6 @@
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="R5:T5"/>
     <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="R3:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -5117,144 +5142,144 @@
   <sheetData>
     <row r="1" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="62" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
-      <c r="Q2" s="51" t="s">
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="65"/>
+      <c r="Q2" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="77" t="s">
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="78"/>
-      <c r="W2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="80"/>
     </row>
     <row r="3" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="70" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="G3" s="71"/>
-      <c r="H3" s="72"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="73"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
       <c r="Q3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="48"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="49"/>
     </row>
     <row r="4" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="70" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
       <c r="Q4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="R4" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="19"/>
-      <c r="T4" s="48"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="49"/>
     </row>
     <row r="5" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="81"/>
       <c r="G5" s="82"/>
       <c r="H5" s="82"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
       <c r="Q5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="R5" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="19"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="19" t="s">
+      <c r="R6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="19"/>
-      <c r="T6" s="48"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="49"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
@@ -5263,26 +5288,26 @@
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="19" t="s">
+      <c r="R7" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="19"/>
-      <c r="T7" s="48"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="49"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
@@ -5291,26 +5316,26 @@
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="19" t="s">
+      <c r="R8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="19"/>
-      <c r="T8" s="48"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="49"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
@@ -5319,28 +5344,28 @@
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
       <c r="Q9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R9" s="19" t="s">
+      <c r="R9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S9" s="19"/>
-      <c r="T9" s="48"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="49"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
@@ -5349,28 +5374,28 @@
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="70" t="s">
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="71" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="71"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="49" t="s">
+      <c r="R10" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="S10" s="49"/>
-      <c r="T10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="51"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
@@ -5403,56 +5428,56 @@
     </row>
     <row r="15" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32" t="s">
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="33" t="s">
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
       <c r="Z16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AA16" s="32" t="s">
+      <c r="AA16" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="34"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="35"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="45" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="41" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="42" t="s">
         <v>94</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="O17" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17" s="24"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="O17" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="25"/>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -5497,20 +5522,20 @@
       </c>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="41" t="s">
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
-      <c r="O18" s="23" t="s">
+      <c r="F18" s="42"/>
+      <c r="G18" s="43"/>
+      <c r="O18" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="P18" s="24"/>
+      <c r="P18" s="25"/>
       <c r="Q18" s="3">
         <v>1</v>
       </c>
@@ -5555,20 +5580,20 @@
       </c>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="41" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
-      <c r="O19" s="23" t="s">
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+      <c r="O19" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="P19" s="24"/>
+      <c r="P19" s="25"/>
       <c r="Q19" s="3">
         <v>1</v>
       </c>
@@ -5611,20 +5636,20 @@
       <c r="AD19" s="4"/>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="41" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="O20" s="23" t="s">
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+      <c r="O20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="P20" s="24"/>
+      <c r="P20" s="25"/>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -5669,20 +5694,20 @@
       </c>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="41" t="s">
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-      <c r="O21" s="23" t="s">
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="O21" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P21" s="24"/>
+      <c r="P21" s="25"/>
       <c r="Q21" s="3">
         <v>1</v>
       </c>
@@ -5727,50 +5752,50 @@
       </c>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="41" t="s">
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="O22" s="18" t="s">
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="O22" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="22"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="23"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="45" t="s">
         <v>91</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="41" t="s">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
-      <c r="O23" s="23" t="s">
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="O23" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="P23" s="24"/>
+      <c r="P23" s="25"/>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -5815,214 +5840,214 @@
       </c>
     </row>
     <row r="24" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="44"/>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="41" t="s">
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="27" t="s">
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="U24" s="28"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="27" t="s">
+      <c r="U24" s="29"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="26"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="27"/>
       <c r="Z24" s="7"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="29"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="30"/>
     </row>
     <row r="25" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="43" t="s">
+      <c r="B25" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="41" t="s">
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="41" t="s">
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B27" s="43" t="s">
+      <c r="B27" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="41" t="s">
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F27" s="41"/>
-      <c r="G27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="43"/>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B28" s="43" t="s">
+      <c r="B28" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="41" t="s">
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="41" t="s">
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="43"/>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="41" t="s">
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="41" t="s">
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="43"/>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="41" t="s">
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="43"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="41" t="s">
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="43"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="45" t="s">
         <v>100</v>
       </c>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="41" t="s">
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="F34" s="41"/>
-      <c r="G34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="43" t="s">
+      <c r="B35" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="41" t="s">
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="43"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="43" t="s">
+      <c r="B36" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="41" t="s">
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F36" s="41"/>
-      <c r="G36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="43"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="43" t="s">
+      <c r="B37" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="41" t="s">
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F37" s="41"/>
-      <c r="G37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="43"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="41" t="s">
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F38" s="41"/>
-      <c r="G38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="43"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="44" t="s">
+      <c r="B39" s="45" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="41" t="s">
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="42" t="s">
         <v>101</v>
       </c>
-      <c r="F39" s="41"/>
-      <c r="G39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="110">
@@ -6146,8 +6171,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A5DDA7C-3615-4921-9E62-A5A1A23583C6}">
   <dimension ref="B1:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10:T10"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18:D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -6158,144 +6183,144 @@
   <sheetData>
     <row r="1" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="59" t="s">
+      <c r="B2" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="60"/>
-      <c r="D2" s="60"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="62" t="s">
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="63" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="64"/>
-      <c r="Q2" s="51" t="s">
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="65"/>
+      <c r="Q2" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="34"/>
-      <c r="U2" s="77" t="s">
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="78" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="78"/>
-      <c r="W2" s="79"/>
+      <c r="V2" s="79"/>
+      <c r="W2" s="80"/>
     </row>
     <row r="3" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="20" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="19"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="19" t="s">
+      <c r="D3" s="20"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="20" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="19"/>
-      <c r="H3" s="48"/>
-      <c r="L3" s="69"/>
-      <c r="M3" s="69"/>
-      <c r="N3" s="69"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="49"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
       <c r="Q3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="19"/>
-      <c r="T3" s="48"/>
+      <c r="S3" s="20"/>
+      <c r="T3" s="49"/>
     </row>
     <row r="4" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="19"/>
-      <c r="E4" s="20"/>
-      <c r="F4" s="70" t="s">
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="71"/>
-      <c r="H4" s="72"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="69"/>
-      <c r="K4" s="69"/>
-      <c r="L4" s="69"/>
-      <c r="M4" s="69"/>
-      <c r="N4" s="69"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
       <c r="Q4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="19" t="s">
+      <c r="R4" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="19"/>
-      <c r="T4" s="48"/>
+      <c r="S4" s="20"/>
+      <c r="T4" s="49"/>
     </row>
     <row r="5" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="48"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="49"/>
       <c r="F5" s="81"/>
       <c r="G5" s="82"/>
       <c r="H5" s="82"/>
-      <c r="I5" s="69"/>
-      <c r="J5" s="69"/>
-      <c r="K5" s="69"/>
-      <c r="L5" s="69"/>
-      <c r="M5" s="69"/>
-      <c r="N5" s="69"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
       <c r="Q5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="19" t="s">
+      <c r="R5" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="19"/>
-      <c r="T5" s="48"/>
-      <c r="U5" s="69"/>
-      <c r="V5" s="69"/>
-      <c r="W5" s="69"/>
+      <c r="S5" s="20"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="19"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="69"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="69"/>
-      <c r="J6" s="69"/>
-      <c r="K6" s="69"/>
-      <c r="L6" s="69"/>
-      <c r="M6" s="69"/>
-      <c r="N6" s="69"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="83"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="19" t="s">
+      <c r="R6" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="19"/>
-      <c r="T6" s="48"/>
+      <c r="S6" s="20"/>
+      <c r="T6" s="49"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
@@ -6304,26 +6329,26 @@
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="69"/>
-      <c r="G7" s="69"/>
-      <c r="H7" s="69"/>
-      <c r="I7" s="69"/>
-      <c r="J7" s="69"/>
-      <c r="K7" s="69"/>
-      <c r="L7" s="69"/>
-      <c r="M7" s="69"/>
-      <c r="N7" s="69"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="70"/>
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="19" t="s">
+      <c r="R7" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="19"/>
-      <c r="T7" s="48"/>
+      <c r="S7" s="20"/>
+      <c r="T7" s="49"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
@@ -6332,26 +6357,26 @@
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="19"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
-      <c r="J8" s="69"/>
-      <c r="K8" s="69"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="69"/>
-      <c r="N8" s="69"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="70"/>
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="19" t="s">
+      <c r="R8" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="19"/>
-      <c r="T8" s="48"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="49"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
@@ -6360,28 +6385,28 @@
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="20" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
-      <c r="K9" s="69"/>
-      <c r="L9" s="69"/>
-      <c r="M9" s="69"/>
-      <c r="N9" s="69"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="70"/>
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
       <c r="Q9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R9" s="19" t="s">
+      <c r="R9" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="S9" s="19"/>
-      <c r="T9" s="48"/>
+      <c r="S9" s="20"/>
+      <c r="T9" s="49"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
@@ -6390,26 +6415,26 @@
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="50" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="71"/>
-      <c r="H10" s="72"/>
-      <c r="I10" s="69"/>
-      <c r="J10" s="69"/>
-      <c r="K10" s="69"/>
-      <c r="L10" s="69"/>
-      <c r="M10" s="69"/>
-      <c r="N10" s="69"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="71"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="49" t="s">
+      <c r="R10" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="S10" s="49"/>
-      <c r="T10" s="50"/>
+      <c r="S10" s="50"/>
+      <c r="T10" s="51"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
@@ -6434,56 +6459,56 @@
     </row>
     <row r="15" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="39"/>
-      <c r="D16" s="39"/>
-      <c r="E16" s="39"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="40"/>
-      <c r="O16" s="30"/>
-      <c r="P16" s="31"/>
-      <c r="Q16" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="R16" s="32"/>
-      <c r="S16" s="32"/>
-      <c r="T16" s="32" t="s">
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="U16" s="32"/>
-      <c r="V16" s="32"/>
-      <c r="W16" s="33" t="s">
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="X16" s="32"/>
-      <c r="Y16" s="32"/>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
       <c r="Z16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AA16" s="32" t="s">
+      <c r="AA16" s="33" t="s">
         <v>57</v>
       </c>
-      <c r="AB16" s="32"/>
-      <c r="AC16" s="32"/>
-      <c r="AD16" s="34"/>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="35"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B17" s="44" t="s">
+      <c r="B17" s="45" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="45"/>
-      <c r="D17" s="45"/>
-      <c r="E17" s="41" t="s">
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="O17" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17" s="24"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="O17" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="25"/>
       <c r="Q17" s="3">
         <v>0</v>
       </c>
@@ -6528,20 +6553,20 @@
       </c>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="86" t="s">
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="87" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="86"/>
-      <c r="G18" s="87"/>
-      <c r="O18" s="23" t="s">
+      <c r="F18" s="87"/>
+      <c r="G18" s="88"/>
+      <c r="O18" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="P18" s="24"/>
+      <c r="P18" s="25"/>
       <c r="Q18" s="3">
         <v>1</v>
       </c>
@@ -6586,20 +6611,20 @@
       </c>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B19" s="43" t="s">
+      <c r="B19" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="41" t="s">
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
-      <c r="O19" s="23" t="s">
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+      <c r="O19" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="P19" s="24"/>
+      <c r="P19" s="25"/>
       <c r="Q19" s="3">
         <v>1</v>
       </c>
@@ -6642,20 +6667,20 @@
       <c r="AD19" s="4"/>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B20" s="43" t="s">
+      <c r="B20" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="41" t="s">
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="41"/>
-      <c r="G20" s="42"/>
-      <c r="O20" s="23" t="s">
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+      <c r="O20" s="24" t="s">
         <v>20</v>
       </c>
-      <c r="P20" s="24"/>
+      <c r="P20" s="25"/>
       <c r="Q20" s="3">
         <v>0</v>
       </c>
@@ -6700,20 +6725,20 @@
       </c>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B21" s="43" t="s">
+      <c r="B21" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="41" t="s">
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="41"/>
-      <c r="G21" s="42"/>
-      <c r="O21" s="23" t="s">
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="O21" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="P21" s="24"/>
+      <c r="P21" s="25"/>
       <c r="Q21" s="3">
         <v>1</v>
       </c>
@@ -6758,50 +6783,50 @@
       </c>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B22" s="43" t="s">
+      <c r="B22" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="37"/>
-      <c r="D22" s="37"/>
-      <c r="E22" s="41" t="s">
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="41"/>
-      <c r="G22" s="42"/>
-      <c r="O22" s="18" t="s">
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="O22" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="19"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="21"/>
-      <c r="S22" s="21"/>
-      <c r="T22" s="21"/>
-      <c r="U22" s="21"/>
-      <c r="V22" s="21"/>
-      <c r="W22" s="21"/>
-      <c r="X22" s="21"/>
-      <c r="Y22" s="21"/>
-      <c r="Z22" s="21"/>
-      <c r="AA22" s="21"/>
-      <c r="AB22" s="21"/>
-      <c r="AC22" s="21"/>
-      <c r="AD22" s="22"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="23"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="45" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="45"/>
-      <c r="D23" s="45"/>
-      <c r="E23" s="41" t="s">
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="42" t="s">
         <v>120</v>
       </c>
-      <c r="F23" s="41"/>
-      <c r="G23" s="42"/>
-      <c r="O23" s="23" t="s">
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="O23" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="P23" s="24"/>
+      <c r="P23" s="25"/>
       <c r="Q23" s="3">
         <v>0</v>
       </c>
@@ -6846,156 +6871,156 @@
       </c>
     </row>
     <row r="24" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="45"/>
-      <c r="D24" s="45"/>
-      <c r="E24" s="41" t="s">
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="41"/>
-      <c r="G24" s="42"/>
-      <c r="O24" s="25"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="27"/>
-      <c r="R24" s="28"/>
-      <c r="S24" s="26"/>
-      <c r="T24" s="27" t="s">
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="U24" s="28"/>
-      <c r="V24" s="26"/>
-      <c r="W24" s="27" t="s">
+      <c r="U24" s="29"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="28" t="s">
         <v>55</v>
       </c>
-      <c r="X24" s="28"/>
-      <c r="Y24" s="26"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="27"/>
       <c r="Z24" s="7"/>
-      <c r="AA24" s="27"/>
-      <c r="AB24" s="28"/>
-      <c r="AC24" s="28"/>
-      <c r="AD24" s="29"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="30"/>
     </row>
     <row r="25" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="43"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="42"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B26" s="43"/>
-      <c r="C26" s="37"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="42"/>
+      <c r="B26" s="44"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B27" s="43"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="42"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="43"/>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B28" s="43"/>
-      <c r="C28" s="37"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="42"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B29" s="44"/>
-      <c r="C29" s="45"/>
-      <c r="D29" s="45"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="42"/>
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="43"/>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B30" s="43"/>
-      <c r="C30" s="37"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="42"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B31" s="43"/>
-      <c r="C31" s="37"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="42"/>
+      <c r="B31" s="44"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="43"/>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B32" s="43"/>
-      <c r="C32" s="37"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="42"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="43"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="43"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="42"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="43"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="44"/>
-      <c r="C34" s="45"/>
-      <c r="D34" s="45"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="42"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="43"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="42"/>
+      <c r="B35" s="44"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="43"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="43"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="42"/>
+      <c r="B36" s="44"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="43"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="43"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="37"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="42"/>
+      <c r="B37" s="44"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="43"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B38" s="43"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="42"/>
+      <c r="B38" s="44"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="43"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="44"/>
-      <c r="C39" s="45"/>
-      <c r="D39" s="45"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="42"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="110">
@@ -7113,4 +7138,971 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E697E3AF-5E19-44B4-8E54-CB57578C03D3}">
+  <dimension ref="B1:AD39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10:K10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="18" max="18" width="8.7265625" customWidth="1"/>
+    <col min="30" max="30" width="16.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="65"/>
+      <c r="Q2" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="79"/>
+      <c r="W2" s="80"/>
+    </row>
+    <row r="3" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="Q3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="20"/>
+      <c r="T3" s="49"/>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="Q4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="20"/>
+      <c r="T4" s="49"/>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="Q5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="20"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="20"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="20"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" s="20"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+    </row>
+    <row r="9" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="Q9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9" s="20"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+    </row>
+    <row r="10" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="57"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="Q10" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="R10" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="S10" s="50"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="56" t="s">
+        <v>36</v>
+      </c>
+      <c r="V10" s="57"/>
+      <c r="W10" s="58"/>
+    </row>
+    <row r="11" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B13" s="5"/>
+      <c r="Q13" t="s">
+        <v>124</v>
+      </c>
+      <c r="R13">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="41"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="32"/>
+      <c r="Q16" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="U16" s="33"/>
+      <c r="V16" s="33"/>
+      <c r="W16" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="X16" s="33"/>
+      <c r="Y16" s="33"/>
+      <c r="Z16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA16" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB16" s="33"/>
+      <c r="AC16" s="33"/>
+      <c r="AD16" s="35"/>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B17" s="45" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="42" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="42"/>
+      <c r="G17" s="43"/>
+      <c r="O17" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B18" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="46"/>
+      <c r="D18" s="46"/>
+      <c r="E18" s="87" t="s">
+        <v>32</v>
+      </c>
+      <c r="F18" s="87"/>
+      <c r="G18" s="88"/>
+      <c r="O18" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B19" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+      <c r="O19" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>1</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="4"/>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B20" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="42"/>
+      <c r="G20" s="43"/>
+      <c r="O20" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>1</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B21" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="O21" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="3">
+        <v>1</v>
+      </c>
+      <c r="R21" s="3">
+        <v>1</v>
+      </c>
+      <c r="S21" s="3">
+        <v>1</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B22" s="45" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="42" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="O22" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="21"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+      <c r="U22" s="22"/>
+      <c r="V22" s="22"/>
+      <c r="W22" s="22"/>
+      <c r="X22" s="22"/>
+      <c r="Y22" s="22"/>
+      <c r="Z22" s="22"/>
+      <c r="AA22" s="22"/>
+      <c r="AB22" s="22"/>
+      <c r="AC22" s="22"/>
+      <c r="AD22" s="23"/>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B23" s="45"/>
+      <c r="C23" s="46"/>
+      <c r="D23" s="46"/>
+      <c r="E23" s="42"/>
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="O23" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>1</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
+      <c r="O24" s="26"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="27"/>
+      <c r="T24" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="U24" s="29"/>
+      <c r="V24" s="27"/>
+      <c r="W24" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="27"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="28"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="30"/>
+    </row>
+    <row r="25" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="44"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B26" s="44"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B27" s="44"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="43"/>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B28" s="44"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B29" s="45"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="43"/>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B30" s="44"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B31" s="44"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="43"/>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B32" s="44"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="43"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="44"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="43"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="45"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" s="44"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="43"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="44"/>
+      <c r="C36" s="38"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="43"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37" s="44"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="43"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B38" s="44"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="43"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
+      <c r="D39" s="46"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="104">
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="AA16:AD16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="AA24:AD24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="Q22:AD22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="U10:W10"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="B30:D30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Phase2/TestCases/Test Cases.xlsx
+++ b/Phase2/TestCases/Test Cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pipeline-Processor\Phase2\TestCases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC347445-A7CC-4CFE-A6FD-C761EE7B284F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAB00F59-F291-4009-B08E-B1DCE4974447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="430" yWindow="1220" windowWidth="18770" windowHeight="5510" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,10 @@
     <sheet name="Test Case4" sheetId="6" r:id="rId5"/>
     <sheet name="Test Case5" sheetId="7" r:id="rId6"/>
     <sheet name="Test Case6" sheetId="8" r:id="rId7"/>
+    <sheet name="Test Case7" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -42,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="136">
   <si>
     <t>ADD Rsrc Rdst</t>
   </si>
@@ -432,6 +434,24 @@
   </si>
   <si>
     <t>xxx</t>
+  </si>
+  <si>
+    <t>IN R2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0100_xxx_010_xx_0000     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN </t>
+  </si>
+  <si>
+    <t>OUT R2</t>
+  </si>
+  <si>
+    <t>0011_010_xxx_xx_0000</t>
+  </si>
+  <si>
+    <t>out</t>
   </si>
 </sst>
 </file>
@@ -1534,8 +1554,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X30"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7144,8 +7164,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E697E3AF-5E19-44B4-8E54-CB57578C03D3}">
   <dimension ref="B1:AD39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10:K10"/>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -7540,7 +7560,7 @@
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
       <c r="E18" s="87" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F18" s="87"/>
       <c r="G18" s="88"/>
@@ -8105,4 +8125,985 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D4554E3-482D-44B8-AEDC-09B1F2F7FFFB}">
+  <dimension ref="B1:AD41"/>
+  <sheetViews>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="18" max="18" width="8.7265625" customWidth="1"/>
+    <col min="30" max="30" width="16.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:23" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="60" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="61"/>
+      <c r="D2" s="61"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="63" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="65"/>
+      <c r="Q2" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="78" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="79"/>
+      <c r="W2" s="80"/>
+    </row>
+    <row r="3" spans="2:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="20"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="L3" s="70"/>
+      <c r="M3" s="70"/>
+      <c r="N3" s="70"/>
+      <c r="Q3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="20"/>
+      <c r="T3" s="49"/>
+    </row>
+    <row r="4" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="20"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="K4" s="70"/>
+      <c r="L4" s="70"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="70"/>
+      <c r="Q4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="20"/>
+      <c r="T4" s="49"/>
+    </row>
+    <row r="5" spans="2:23" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="56" t="s">
+        <v>35</v>
+      </c>
+      <c r="G5" s="57"/>
+      <c r="H5" s="58"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="K5" s="70"/>
+      <c r="L5" s="70"/>
+      <c r="M5" s="70"/>
+      <c r="N5" s="70"/>
+      <c r="Q5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="20"/>
+      <c r="T5" s="49"/>
+      <c r="U5" s="70"/>
+      <c r="V5" s="70"/>
+      <c r="W5" s="70"/>
+    </row>
+    <row r="6" spans="2:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="20"/>
+      <c r="T6" s="49"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="20"/>
+      <c r="T7" s="49"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" s="20"/>
+      <c r="T8" s="49"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="20"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="Q9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R9" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9" s="20"/>
+      <c r="T9" s="49"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+    </row>
+    <row r="10" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="50" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="18"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="18"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="50" t="s">
+        <v>42</v>
+      </c>
+      <c r="S10" s="50"/>
+      <c r="T10" s="51"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+    </row>
+    <row r="11" spans="2:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B14" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="70"/>
+      <c r="E14" s="70"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.35">
+      <c r="B15" s="5" t="s">
+        <v>135</v>
+      </c>
+      <c r="C15" s="70" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="70"/>
+      <c r="E15" s="70"/>
+      <c r="Q15" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="18" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="48" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="32"/>
+      <c r="Q18" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" s="33"/>
+      <c r="S18" s="33"/>
+      <c r="T18" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="U18" s="33"/>
+      <c r="V18" s="33"/>
+      <c r="W18" s="34" t="s">
+        <v>3</v>
+      </c>
+      <c r="X18" s="33"/>
+      <c r="Y18" s="33"/>
+      <c r="Z18" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA18" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB18" s="33"/>
+      <c r="AC18" s="33"/>
+      <c r="AD18" s="35"/>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B19" s="45" t="s">
+        <v>130</v>
+      </c>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="42" t="s">
+        <v>131</v>
+      </c>
+      <c r="F19" s="42"/>
+      <c r="G19" s="43"/>
+      <c r="O19" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="3">
+        <v>0</v>
+      </c>
+      <c r="R19" s="3">
+        <v>1</v>
+      </c>
+      <c r="S19" s="3">
+        <v>1</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B20" s="45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="46"/>
+      <c r="D20" s="46"/>
+      <c r="E20" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="87"/>
+      <c r="G20" s="88"/>
+      <c r="O20" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="3">
+        <v>1</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>0</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD20" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B21" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="42"/>
+      <c r="G21" s="43"/>
+      <c r="O21" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="3">
+        <v>1</v>
+      </c>
+      <c r="R21" s="3">
+        <v>0</v>
+      </c>
+      <c r="S21" s="3">
+        <v>1</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="4"/>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B22" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="42"/>
+      <c r="G22" s="43"/>
+      <c r="O22" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P22" s="25"/>
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>1</v>
+      </c>
+      <c r="T22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z22" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B23" s="44" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="42"/>
+      <c r="G23" s="43"/>
+      <c r="O23" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="3">
+        <v>1</v>
+      </c>
+      <c r="R23" s="3">
+        <v>1</v>
+      </c>
+      <c r="S23" s="3">
+        <v>1</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B24" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="42" t="s">
+        <v>134</v>
+      </c>
+      <c r="F24" s="42"/>
+      <c r="G24" s="43"/>
+      <c r="O24" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="P24" s="20"/>
+      <c r="Q24" s="21"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
+      <c r="V24" s="22"/>
+      <c r="W24" s="22"/>
+      <c r="X24" s="22"/>
+      <c r="Y24" s="22"/>
+      <c r="Z24" s="22"/>
+      <c r="AA24" s="22"/>
+      <c r="AB24" s="22"/>
+      <c r="AC24" s="22"/>
+      <c r="AD24" s="23"/>
+    </row>
+    <row r="25" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B25" s="45"/>
+      <c r="C25" s="46"/>
+      <c r="D25" s="46"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="43"/>
+      <c r="O25" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="25"/>
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>1</v>
+      </c>
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+      <c r="T25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y25" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z25" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB25" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B26" s="45"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="42"/>
+      <c r="F26" s="42"/>
+      <c r="G26" s="43"/>
+      <c r="O26" s="26"/>
+      <c r="P26" s="27"/>
+      <c r="Q26" s="28"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="27"/>
+      <c r="T26" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="U26" s="29"/>
+      <c r="V26" s="27"/>
+      <c r="W26" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="27"/>
+      <c r="Z26" s="7"/>
+      <c r="AA26" s="28"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="30"/>
+    </row>
+    <row r="27" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B27" s="44"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="42"/>
+      <c r="F27" s="42"/>
+      <c r="G27" s="43"/>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B28" s="44"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="42"/>
+      <c r="F28" s="42"/>
+      <c r="G28" s="43"/>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B29" s="44"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="42"/>
+      <c r="F29" s="42"/>
+      <c r="G29" s="43"/>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B30" s="44"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="42"/>
+      <c r="F30" s="42"/>
+      <c r="G30" s="43"/>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="46"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+      <c r="G31" s="43"/>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B32" s="44"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="42"/>
+      <c r="F32" s="42"/>
+      <c r="G32" s="43"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="44"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="42"/>
+      <c r="F33" s="42"/>
+      <c r="G33" s="43"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="44"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="42"/>
+      <c r="F34" s="42"/>
+      <c r="G34" s="43"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" s="44"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="43"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="45"/>
+      <c r="C36" s="46"/>
+      <c r="D36" s="46"/>
+      <c r="E36" s="42"/>
+      <c r="F36" s="42"/>
+      <c r="G36" s="43"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37" s="44"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42"/>
+      <c r="G37" s="43"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B38" s="44"/>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+      <c r="G38" s="43"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B39" s="44"/>
+      <c r="C39" s="38"/>
+      <c r="D39" s="38"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="43"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B40" s="44"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="43"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B41" s="45"/>
+      <c r="C41" s="46"/>
+      <c r="D41" s="46"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="42"/>
+      <c r="G41" s="43"/>
+    </row>
+  </sheetData>
+  <mergeCells count="105">
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="AA18:AD18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="AA26:AD26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="Q24:AD24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B32:D32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Phase2/TestCases/Test Cases.xlsx
+++ b/Phase2/TestCases/Test Cases.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dell\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Pipeline-Processor\Phase2\TestCases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EAB00F59-F291-4009-B08E-B1DCE4974447}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6360D16-C56E-4813-9F83-94392F16854B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,6 @@
     <sheet name="Test Case7" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1062,6 +1061,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1075,12 +1095,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1098,81 +1112,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1183,6 +1122,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1203,19 +1151,55 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1248,14 +1232,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="35" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1264,6 +1254,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1554,7 +1553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:X30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
@@ -1571,32 +1570,32 @@
       <c r="X1" s="1"/>
     </row>
     <row r="2" spans="3:24" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="C2" s="19"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="34" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
       <c r="N2" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="O2" s="33" t="s">
+      <c r="O2" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="35"/>
+      <c r="P2" s="21"/>
+      <c r="Q2" s="21"/>
+      <c r="R2" s="23"/>
     </row>
     <row r="3" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C3" s="24" t="s">
@@ -1837,24 +1836,24 @@
       </c>
     </row>
     <row r="8" spans="3:24" x14ac:dyDescent="0.35">
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="23"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="K8" s="29"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="29"/>
+      <c r="O8" s="29"/>
+      <c r="P8" s="29"/>
+      <c r="Q8" s="29"/>
+      <c r="R8" s="30"/>
     </row>
     <row r="9" spans="3:24" x14ac:dyDescent="0.35">
       <c r="C9" s="24" t="s">
@@ -1905,26 +1904,26 @@
       </c>
     </row>
     <row r="10" spans="3:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="C10" s="26"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="27"/>
-      <c r="H10" s="28" t="s">
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="I10" s="29"/>
-      <c r="J10" s="27"/>
-      <c r="K10" s="28" t="s">
+      <c r="I10" s="34"/>
+      <c r="J10" s="32"/>
+      <c r="K10" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="29"/>
-      <c r="M10" s="27"/>
+      <c r="L10" s="34"/>
+      <c r="M10" s="32"/>
       <c r="N10" s="7"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="30"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="34"/>
+      <c r="Q10" s="34"/>
+      <c r="R10" s="35"/>
     </row>
     <row r="11" spans="3:24" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="C11" s="9"/>
@@ -2065,16 +2064,6 @@
     <row r="30" spans="2:2" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="K2:M2"/>
-    <mergeCell ref="O2:R2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:R8"/>
     <mergeCell ref="C9:D9"/>
@@ -2083,6 +2072,16 @@
     <mergeCell ref="H10:J10"/>
     <mergeCell ref="K10:M10"/>
     <mergeCell ref="O10:R10"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:G2"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="K2:M2"/>
+    <mergeCell ref="O2:R2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -2106,77 +2105,77 @@
   <sheetData>
     <row r="1" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:24" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="63" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="65"/>
-      <c r="K2" s="52" t="s">
+      <c r="G2" s="47"/>
+      <c r="H2" s="48"/>
+      <c r="K2" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="35"/>
-      <c r="O2" s="53" t="s">
+      <c r="L2" s="21"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="P2" s="54"/>
-      <c r="Q2" s="55"/>
+      <c r="P2" s="51"/>
+      <c r="Q2" s="52"/>
     </row>
     <row r="3" spans="2:24" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
       <c r="K3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="L3" s="20" t="s">
+      <c r="L3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="M3" s="20"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="56" t="s">
+      <c r="M3" s="27"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="P3" s="57"/>
-      <c r="Q3" s="58"/>
+      <c r="P3" s="37"/>
+      <c r="Q3" s="38"/>
     </row>
     <row r="4" spans="2:24" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="56" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="58"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="38"/>
       <c r="K4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="L4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="20"/>
-      <c r="N4" s="49"/>
+      <c r="M4" s="27"/>
+      <c r="N4" s="40"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
@@ -2185,24 +2184,24 @@
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="56" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="58"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
       <c r="K5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="L5" s="20" t="s">
+      <c r="L5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="M5" s="20"/>
-      <c r="N5" s="49"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="40"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -2211,22 +2210,22 @@
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="56" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="58"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="38"/>
       <c r="K6" s="2"/>
-      <c r="L6" s="20" t="s">
+      <c r="L6" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="M6" s="20"/>
-      <c r="N6" s="49"/>
+      <c r="M6" s="27"/>
+      <c r="N6" s="40"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
@@ -2235,20 +2234,20 @@
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="59"/>
-      <c r="G7" s="59"/>
-      <c r="H7" s="59"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="39"/>
+      <c r="G7" s="39"/>
+      <c r="H7" s="39"/>
       <c r="K7" s="2"/>
-      <c r="L7" s="20" t="s">
+      <c r="L7" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="M7" s="20"/>
-      <c r="N7" s="49"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="40"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
       <c r="Q7" s="5"/>
@@ -2257,22 +2256,22 @@
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="56" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="57"/>
-      <c r="H8" s="58"/>
+      <c r="G8" s="37"/>
+      <c r="H8" s="38"/>
       <c r="K8" s="2"/>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="M8" s="20"/>
-      <c r="N8" s="49"/>
+      <c r="M8" s="27"/>
+      <c r="N8" s="40"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
       <c r="Q8" s="5"/>
@@ -2281,22 +2280,22 @@
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="59"/>
-      <c r="G9" s="59"/>
-      <c r="H9" s="59"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="39"/>
+      <c r="G9" s="39"/>
+      <c r="H9" s="39"/>
       <c r="K9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="L9" s="20" t="s">
+      <c r="L9" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="M9" s="20"/>
-      <c r="N9" s="49"/>
+      <c r="M9" s="27"/>
+      <c r="N9" s="40"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
       <c r="Q9" s="5"/>
@@ -2305,20 +2304,20 @@
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="41" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="59"/>
-      <c r="H10" s="59"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="39"/>
+      <c r="G10" s="39"/>
+      <c r="H10" s="39"/>
       <c r="K10" s="6"/>
-      <c r="L10" s="50" t="s">
+      <c r="L10" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="M10" s="50"/>
-      <c r="N10" s="51"/>
+      <c r="M10" s="41"/>
+      <c r="N10" s="42"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
       <c r="Q10" s="5"/>
@@ -2326,52 +2325,52 @@
     <row r="11" spans="2:24" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="2:24" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="L16" s="33"/>
-      <c r="M16" s="33"/>
-      <c r="N16" s="33" t="s">
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="65"/>
+      <c r="I16" s="19"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="21"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="O16" s="33"/>
-      <c r="P16" s="33"/>
-      <c r="Q16" s="34" t="s">
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
       <c r="T16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="U16" s="33" t="s">
+      <c r="U16" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="V16" s="33"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="35"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="23"/>
     </row>
     <row r="17" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="55" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="42" t="s">
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
       <c r="H17" t="s">
         <v>67</v>
       </c>
@@ -2423,16 +2422,16 @@
       </c>
     </row>
     <row r="18" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="42" t="s">
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
       <c r="I18" s="24" t="s">
         <v>16</v>
       </c>
@@ -2481,16 +2480,16 @@
       </c>
     </row>
     <row r="19" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="42" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58"/>
       <c r="I19" s="24" t="s">
         <v>19</v>
       </c>
@@ -2537,16 +2536,16 @@
       <c r="X19" s="4"/>
     </row>
     <row r="20" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="42" t="s">
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58"/>
       <c r="I20" s="24" t="s">
         <v>20</v>
       </c>
@@ -2595,16 +2594,16 @@
       </c>
     </row>
     <row r="21" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="42" t="s">
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
       <c r="I21" s="24" t="s">
         <v>60</v>
       </c>
@@ -2653,49 +2652,49 @@
       </c>
     </row>
     <row r="22" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="38" t="s">
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="60" t="s">
         <v>105</v>
       </c>
-      <c r="F22" s="38"/>
-      <c r="G22" s="39"/>
+      <c r="F22" s="60"/>
+      <c r="G22" s="64"/>
       <c r="H22" t="s">
         <v>68</v>
       </c>
-      <c r="I22" s="19" t="s">
+      <c r="I22" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="J22" s="20"/>
-      <c r="K22" s="21"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="23"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="30"/>
     </row>
     <row r="23" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="42" t="s">
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
       <c r="I23" s="24" t="s">
         <v>21</v>
       </c>
@@ -2744,266 +2743,245 @@
       </c>
     </row>
     <row r="24" spans="2:24" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="44" t="s">
+      <c r="B24" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="38"/>
-      <c r="D24" s="38"/>
-      <c r="E24" s="42" t="s">
+      <c r="C24" s="60"/>
+      <c r="D24" s="60"/>
+      <c r="E24" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
-      <c r="I24" s="26"/>
-      <c r="J24" s="27"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="29"/>
-      <c r="M24" s="27"/>
-      <c r="N24" s="28" t="s">
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="34"/>
+      <c r="M24" s="32"/>
+      <c r="N24" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="O24" s="29"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="28" t="s">
+      <c r="O24" s="34"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="R24" s="29"/>
-      <c r="S24" s="27"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="32"/>
       <c r="T24" s="7"/>
-      <c r="U24" s="28"/>
-      <c r="V24" s="29"/>
-      <c r="W24" s="29"/>
-      <c r="X24" s="30"/>
+      <c r="U24" s="33"/>
+      <c r="V24" s="34"/>
+      <c r="W24" s="34"/>
+      <c r="X24" s="35"/>
     </row>
     <row r="25" spans="2:24" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="42" t="s">
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
     </row>
     <row r="26" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="42" t="s">
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
     </row>
     <row r="27" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B27" s="45" t="s">
+      <c r="B27" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="46"/>
-      <c r="D27" s="46"/>
-      <c r="E27" s="38" t="s">
+      <c r="C27" s="56"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="60" t="s">
         <v>106</v>
       </c>
-      <c r="F27" s="38"/>
-      <c r="G27" s="39"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="64"/>
       <c r="H27" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="28" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="42" t="s">
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
     </row>
     <row r="29" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="42" t="s">
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="58"/>
     </row>
     <row r="30" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="42" t="s">
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="58"/>
     </row>
     <row r="31" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="42" t="s">
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
     </row>
     <row r="32" spans="2:24" x14ac:dyDescent="0.35">
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="C32" s="46"/>
-      <c r="D32" s="46"/>
-      <c r="E32" s="38" t="s">
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="60" t="s">
         <v>121</v>
       </c>
-      <c r="F32" s="38"/>
-      <c r="G32" s="39"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="64"/>
       <c r="H32" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="42" t="s">
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="58"/>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="42" t="s">
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="43"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="58"/>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="42" t="s">
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F35" s="42"/>
-      <c r="G35" s="43"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="58"/>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="42" t="s">
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F36" s="42"/>
-      <c r="G36" s="43"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="58"/>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B37" s="45" t="s">
+      <c r="B37" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="C37" s="46"/>
-      <c r="D37" s="46"/>
-      <c r="E37" s="38" t="s">
+      <c r="C37" s="56"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="60" t="s">
         <v>107</v>
       </c>
-      <c r="F37" s="38"/>
-      <c r="G37" s="39"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="64"/>
       <c r="H37" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="47" t="s">
+      <c r="B38" s="61" t="s">
         <v>54</v>
       </c>
-      <c r="C38" s="36"/>
-      <c r="D38" s="36"/>
-      <c r="E38" s="36" t="s">
+      <c r="C38" s="62"/>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="F38" s="36"/>
-      <c r="G38" s="37"/>
+      <c r="F38" s="62"/>
+      <c r="G38" s="63"/>
     </row>
     <row r="39" spans="2:8" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="93">
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="K2:N2"/>
-    <mergeCell ref="O2:Q2"/>
-    <mergeCell ref="O3:Q3"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="K24:M24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K22:X22"/>
+    <mergeCell ref="U24:X24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="N24:P24"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="I17:J17"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="K16:M16"/>
+    <mergeCell ref="N16:P16"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
     <mergeCell ref="B35:D35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="B37:D37"/>
@@ -3020,34 +2998,55 @@
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="E31:G31"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="K16:M16"/>
-    <mergeCell ref="N16:P16"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="K24:M24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K22:X22"/>
-    <mergeCell ref="U24:X24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="N24:P24"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="I17:J17"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="K2:N2"/>
+    <mergeCell ref="O2:Q2"/>
+    <mergeCell ref="O3:Q3"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:H2"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C10:E10"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3072,153 +3071,153 @@
   <sheetData>
     <row r="1" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="63" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="65"/>
-      <c r="Q2" s="52" t="s">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="48"/>
+      <c r="Q2" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="78" t="s">
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="79"/>
-      <c r="W2" s="80"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="75"/>
     </row>
     <row r="3" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="K3" s="70"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
       <c r="Q3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="20"/>
-      <c r="T3" s="49"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="40"/>
     </row>
     <row r="4" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="71" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="66" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="71" t="s">
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="J4" s="72"/>
-      <c r="K4" s="73"/>
-      <c r="L4" s="74" t="s">
+      <c r="J4" s="67"/>
+      <c r="K4" s="68"/>
+      <c r="L4" s="69" t="s">
         <v>66</v>
       </c>
-      <c r="M4" s="75"/>
-      <c r="N4" s="76"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="71"/>
       <c r="Q4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="20"/>
-      <c r="T4" s="49"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="40"/>
     </row>
     <row r="5" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="74" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="G5" s="75"/>
-      <c r="H5" s="76"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
+      <c r="G5" s="70"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
       <c r="Q5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="R5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="20"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="56" t="s">
+      <c r="S5" s="27"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="36" t="s">
         <v>66</v>
       </c>
-      <c r="V5" s="57"/>
-      <c r="W5" s="58"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="38"/>
     </row>
     <row r="6" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="70"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="20"/>
-      <c r="T6" s="49"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="40"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
@@ -3227,26 +3226,26 @@
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="20" t="s">
+      <c r="R7" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="20"/>
-      <c r="T7" s="49"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="40"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
@@ -3255,26 +3254,26 @@
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="20" t="s">
+      <c r="R8" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="20"/>
-      <c r="T8" s="49"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="40"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
@@ -3283,28 +3282,28 @@
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
       <c r="Q9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="R9" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S9" s="20"/>
-      <c r="T9" s="49"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="40"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
@@ -3313,26 +3312,26 @@
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="50" t="s">
+      <c r="R10" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="S10" s="50"/>
-      <c r="T10" s="51"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="42"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
@@ -3340,52 +3339,52 @@
     <row r="11" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33" t="s">
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="65"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="34" t="s">
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
       <c r="Z16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AA16" s="33" t="s">
+      <c r="AA16" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="35"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="23"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="55" t="s">
         <v>72</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="42" t="s">
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57" t="s">
         <v>116</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
       <c r="O17" s="24" t="s">
         <v>0</v>
       </c>
@@ -3434,16 +3433,16 @@
       </c>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="42" t="s">
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
       <c r="O18" s="24" t="s">
         <v>16</v>
       </c>
@@ -3492,16 +3491,16 @@
       </c>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="42" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58"/>
       <c r="O19" s="24" t="s">
         <v>19</v>
       </c>
@@ -3548,16 +3547,16 @@
       <c r="AD19" s="4"/>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="42" t="s">
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58"/>
       <c r="O20" s="24" t="s">
         <v>20</v>
       </c>
@@ -3606,16 +3605,16 @@
       </c>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="42" t="s">
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
       <c r="O21" s="24" t="s">
         <v>60</v>
       </c>
@@ -3664,46 +3663,46 @@
       </c>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="42" t="s">
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="O22" s="19" t="s">
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
+      <c r="O22" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="23"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="30"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="55" t="s">
         <v>73</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="42" t="s">
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57" t="s">
         <v>117</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
       <c r="O23" s="24" t="s">
         <v>21</v>
       </c>
@@ -3752,376 +3751,279 @@
       </c>
     </row>
     <row r="24" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="42" t="s">
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="28" t="s">
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="U24" s="29"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="28" t="s">
+      <c r="U24" s="34"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="27"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="32"/>
       <c r="Z24" s="7"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="30"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="35"/>
     </row>
     <row r="25" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="44" t="s">
+      <c r="B25" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="42" t="s">
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B26" s="44" t="s">
+      <c r="B26" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="42" t="s">
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B27" s="44" t="s">
+      <c r="B27" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="42" t="s">
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="58"/>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B28" s="44" t="s">
+      <c r="B28" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="42" t="s">
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="42" t="s">
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="58"/>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="42" t="s">
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="58"/>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="42" t="s">
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B32" s="44" t="s">
+      <c r="B32" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="42" t="s">
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="43"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="58"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="44" t="s">
+      <c r="B33" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="42" t="s">
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="58"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="45" t="s">
+      <c r="B34" s="55" t="s">
         <v>74</v>
       </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="42" t="s">
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="57" t="s">
         <v>118</v>
       </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="43"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="58"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="44" t="s">
+      <c r="B35" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="42" t="s">
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F35" s="42"/>
-      <c r="G35" s="43"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="58"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="44" t="s">
+      <c r="B36" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="42" t="s">
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F36" s="42"/>
-      <c r="G36" s="43"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="58"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="44" t="s">
+      <c r="B37" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="42" t="s">
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F37" s="42"/>
-      <c r="G37" s="43"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="58"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B38" s="44" t="s">
+      <c r="B38" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="42" t="s">
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F38" s="42"/>
-      <c r="G38" s="43"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="58"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="45" t="s">
+      <c r="B39" s="55" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="42" t="s">
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="57" t="s">
         <v>119</v>
       </c>
-      <c r="F39" s="42"/>
-      <c r="G39" s="43"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="58"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B40" s="44" t="s">
+      <c r="B40" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="42" t="s">
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F40" s="42"/>
-      <c r="G40" s="43"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="58"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="42" t="s">
+      <c r="C41" s="60"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F41" s="42"/>
-      <c r="G41" s="43"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="58"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="42" t="s">
+      <c r="C42" s="60"/>
+      <c r="D42" s="60"/>
+      <c r="E42" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F42" s="42"/>
-      <c r="G42" s="43"/>
+      <c r="F42" s="57"/>
+      <c r="G42" s="58"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B43" s="44" t="s">
+      <c r="B43" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C43" s="38"/>
-      <c r="D43" s="38"/>
-      <c r="E43" s="42" t="s">
+      <c r="C43" s="60"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="57" t="s">
         <v>108</v>
       </c>
-      <c r="F43" s="42"/>
-      <c r="G43" s="43"/>
+      <c r="F43" s="57"/>
+      <c r="G43" s="58"/>
     </row>
     <row r="44" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B44" s="66" t="s">
+      <c r="B44" s="77" t="s">
         <v>76</v>
       </c>
-      <c r="C44" s="67"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="68" t="s">
+      <c r="C44" s="78"/>
+      <c r="D44" s="78"/>
+      <c r="E44" s="79" t="s">
         <v>122</v>
       </c>
-      <c r="F44" s="68"/>
-      <c r="G44" s="69"/>
+      <c r="F44" s="79"/>
+      <c r="G44" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="121">
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="I3:K3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="AA16:AD16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="AA24:AD24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="Q22:AD22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="B42:D42"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="E43:G43"/>
     <mergeCell ref="B44:D44"/>
@@ -4146,6 +4048,103 @@
     <mergeCell ref="B20:D20"/>
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="B42:D42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="AA24:AD24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="Q22:AD22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="AA16:AD16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4168,148 +4167,148 @@
   <sheetData>
     <row r="1" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="63" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="65"/>
-      <c r="Q2" s="52" t="s">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="48"/>
+      <c r="Q2" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="78" t="s">
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="79"/>
-      <c r="W2" s="80"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="75"/>
     </row>
     <row r="3" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="27" t="s">
         <v>84</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="71" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
+      <c r="G3" s="67"/>
+      <c r="H3" s="68"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
       <c r="Q3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="20"/>
-      <c r="T3" s="49"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="40"/>
     </row>
     <row r="4" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="71" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
       <c r="Q4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="20"/>
-      <c r="T4" s="49"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="40"/>
     </row>
     <row r="5" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
       <c r="Q5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="R5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="20"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
     </row>
     <row r="6" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="71" t="s">
+      <c r="D6" s="27"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="66" t="s">
         <v>82</v>
       </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="73"/>
-      <c r="I6" s="70" t="s">
+      <c r="G6" s="67"/>
+      <c r="H6" s="68"/>
+      <c r="I6" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="20"/>
-      <c r="T6" s="49"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="40"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
@@ -4318,26 +4317,26 @@
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="20" t="s">
+      <c r="R7" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="20"/>
-      <c r="T7" s="49"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="40"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
@@ -4346,28 +4345,28 @@
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="70" t="s">
+      <c r="D8" s="27"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="76" t="s">
         <v>83</v>
       </c>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="20" t="s">
+      <c r="R8" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="20"/>
-      <c r="T8" s="49"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="40"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
@@ -4376,28 +4375,28 @@
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
       <c r="Q9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="R9" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S9" s="20"/>
-      <c r="T9" s="49"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="40"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
@@ -4406,26 +4405,26 @@
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="70"/>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="76"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="76"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="50" t="s">
+      <c r="R10" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="S10" s="50"/>
-      <c r="T10" s="51"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="42"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
@@ -4433,52 +4432,52 @@
     <row r="11" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35"/>
     <row r="15" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33" t="s">
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="65"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="34" t="s">
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
       <c r="Z16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AA16" s="33" t="s">
+      <c r="AA16" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="35"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="23"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="55" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="42" t="s">
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
       <c r="O17" s="24" t="s">
         <v>0</v>
       </c>
@@ -4527,16 +4526,16 @@
       </c>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B18" s="44" t="s">
+      <c r="B18" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="42" t="s">
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
       <c r="O18" s="24" t="s">
         <v>16</v>
       </c>
@@ -4585,16 +4584,16 @@
       </c>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="42" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58"/>
       <c r="O19" s="24" t="s">
         <v>19</v>
       </c>
@@ -4641,16 +4640,16 @@
       <c r="AD19" s="4"/>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="42" t="s">
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58"/>
       <c r="O20" s="24" t="s">
         <v>20</v>
       </c>
@@ -4699,16 +4698,16 @@
       </c>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="42" t="s">
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
       <c r="O21" s="24" t="s">
         <v>60</v>
       </c>
@@ -4757,46 +4756,46 @@
       </c>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="42" t="s">
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="O22" s="19" t="s">
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
+      <c r="O22" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="23"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="30"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="55" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="42" t="s">
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
       <c r="O23" s="24" t="s">
         <v>21</v>
       </c>
@@ -4845,43 +4844,43 @@
       </c>
     </row>
     <row r="24" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="84" t="s">
+      <c r="B24" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="85"/>
-      <c r="D24" s="86"/>
+      <c r="C24" s="82"/>
+      <c r="D24" s="83"/>
       <c r="E24" s="15" t="s">
         <v>38</v>
       </c>
       <c r="F24" s="15"/>
       <c r="G24" s="16"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="28" t="s">
+      <c r="O24" s="31"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="U24" s="29"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="28" t="s">
+      <c r="U24" s="34"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="27"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="32"/>
       <c r="Z24" s="7"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="30"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="35"/>
     </row>
     <row r="25" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="84" t="s">
+      <c r="B25" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="C25" s="85"/>
-      <c r="D25" s="86"/>
+      <c r="C25" s="82"/>
+      <c r="D25" s="83"/>
       <c r="E25" s="15" t="s">
         <v>38</v>
       </c>
@@ -4889,11 +4888,11 @@
       <c r="G25" s="16"/>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B26" s="84" t="s">
+      <c r="B26" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="85"/>
-      <c r="D26" s="86"/>
+      <c r="C26" s="82"/>
+      <c r="D26" s="83"/>
       <c r="E26" s="15" t="s">
         <v>38</v>
       </c>
@@ -4901,11 +4900,11 @@
       <c r="G26" s="16"/>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B27" s="84" t="s">
+      <c r="B27" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="C27" s="85"/>
-      <c r="D27" s="86"/>
+      <c r="C27" s="82"/>
+      <c r="D27" s="83"/>
       <c r="E27" s="15" t="s">
         <v>38</v>
       </c>
@@ -4913,11 +4912,11 @@
       <c r="G27" s="16"/>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="55" t="s">
         <v>85</v>
       </c>
-      <c r="C28" s="46"/>
-      <c r="D28" s="46"/>
+      <c r="C28" s="56"/>
+      <c r="D28" s="56"/>
       <c r="E28" s="15" t="s">
         <v>86</v>
       </c>
@@ -4925,11 +4924,11 @@
       <c r="G28" s="16"/>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B29" s="84" t="s">
+      <c r="B29" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="C29" s="85"/>
-      <c r="D29" s="86"/>
+      <c r="C29" s="82"/>
+      <c r="D29" s="83"/>
       <c r="E29" s="15" t="s">
         <v>38</v>
       </c>
@@ -4937,11 +4936,11 @@
       <c r="G29" s="16"/>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B30" s="84" t="s">
+      <c r="B30" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="C30" s="85"/>
-      <c r="D30" s="86"/>
+      <c r="C30" s="82"/>
+      <c r="D30" s="83"/>
       <c r="E30" s="15" t="s">
         <v>38</v>
       </c>
@@ -4949,11 +4948,11 @@
       <c r="G30" s="16"/>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B31" s="84" t="s">
+      <c r="B31" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="C31" s="85"/>
-      <c r="D31" s="86"/>
+      <c r="C31" s="82"/>
+      <c r="D31" s="83"/>
       <c r="E31" s="15" t="s">
         <v>38</v>
       </c>
@@ -4961,11 +4960,11 @@
       <c r="G31" s="16"/>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B32" s="84" t="s">
+      <c r="B32" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="C32" s="85"/>
-      <c r="D32" s="86"/>
+      <c r="C32" s="82"/>
+      <c r="D32" s="83"/>
       <c r="E32" s="15" t="s">
         <v>38</v>
       </c>
@@ -4973,11 +4972,11 @@
       <c r="G32" s="16"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="45" t="s">
+      <c r="B33" s="55" t="s">
         <v>87</v>
       </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="46"/>
+      <c r="C33" s="56"/>
+      <c r="D33" s="56"/>
       <c r="E33" s="15" t="s">
         <v>88</v>
       </c>
@@ -4985,11 +4984,11 @@
       <c r="G33" s="16"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="84" t="s">
+      <c r="B34" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="85"/>
-      <c r="D34" s="86"/>
+      <c r="C34" s="82"/>
+      <c r="D34" s="83"/>
       <c r="E34" s="15" t="s">
         <v>38</v>
       </c>
@@ -4997,11 +4996,11 @@
       <c r="G34" s="16"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="84" t="s">
+      <c r="B35" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="C35" s="85"/>
-      <c r="D35" s="86"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="83"/>
       <c r="E35" s="15" t="s">
         <v>38</v>
       </c>
@@ -5009,11 +5008,11 @@
       <c r="G35" s="16"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="84" t="s">
+      <c r="B36" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="C36" s="85"/>
-      <c r="D36" s="86"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="83"/>
       <c r="E36" s="15" t="s">
         <v>38</v>
       </c>
@@ -5021,11 +5020,11 @@
       <c r="G36" s="16"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="84" t="s">
+      <c r="B37" s="81" t="s">
         <v>49</v>
       </c>
-      <c r="C37" s="85"/>
-      <c r="D37" s="86"/>
+      <c r="C37" s="82"/>
+      <c r="D37" s="83"/>
       <c r="E37" s="15" t="s">
         <v>38</v>
       </c>
@@ -5033,19 +5032,105 @@
       <c r="G37" s="16"/>
     </row>
     <row r="38" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B38" s="66" t="s">
+      <c r="B38" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="67"/>
-      <c r="D38" s="67"/>
-      <c r="E38" s="68" t="s">
+      <c r="C38" s="78"/>
+      <c r="D38" s="78"/>
+      <c r="E38" s="79" t="s">
         <v>90</v>
       </c>
-      <c r="F38" s="68"/>
-      <c r="G38" s="69"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="94">
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="AA16:AD16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="AA24:AD24"/>
+    <mergeCell ref="Q22:AD22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B33:D33"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="B26:D26"/>
     <mergeCell ref="B27:D27"/>
@@ -5054,19 +5139,974 @@
     <mergeCell ref="B28:D28"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B201D1-35A9-40B2-B7DB-40D7681C1361}">
+  <dimension ref="B1:AD39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19:G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="18" max="18" width="8.7265625" customWidth="1"/>
+    <col min="30" max="30" width="16.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="48"/>
+      <c r="Q2" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="74"/>
+      <c r="W2" s="75"/>
+    </row>
+    <row r="3" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="G3" s="67"/>
+      <c r="H3" s="68"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="Q3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="27"/>
+      <c r="T3" s="40"/>
+    </row>
+    <row r="4" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="Q4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="27"/>
+      <c r="T4" s="40"/>
+    </row>
+    <row r="5" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="Q5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="27"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="27"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="27"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" s="27"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+    </row>
+    <row r="9" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="Q9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9" s="27"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+    </row>
+    <row r="10" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S10" s="41"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="5"/>
+      <c r="V10" s="5"/>
+      <c r="W10" s="5"/>
+    </row>
+    <row r="11" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>100</v>
+      </c>
+      <c r="F11">
+        <v>110</v>
+      </c>
+      <c r="G11">
+        <v>100</v>
+      </c>
+      <c r="H11">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B13" s="5"/>
+    </row>
+    <row r="15" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="65"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA16" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="23"/>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B17" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="O17" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B18" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="60"/>
+      <c r="D18" s="60"/>
+      <c r="E18" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="57"/>
+      <c r="G18" s="58"/>
+      <c r="O18" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B19" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58"/>
+      <c r="O19" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>1</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="4"/>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B20" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58"/>
+      <c r="O20" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>1</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B21" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
+      <c r="O21" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="3">
+        <v>1</v>
+      </c>
+      <c r="R21" s="3">
+        <v>1</v>
+      </c>
+      <c r="S21" s="3">
+        <v>1</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B22" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
+      <c r="O22" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="30"/>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B23" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
+      <c r="O23" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>1</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="U24" s="34"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="35"/>
+    </row>
+    <row r="25" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B26" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B27" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F27" s="57"/>
+      <c r="G27" s="58"/>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B28" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B29" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="57"/>
+      <c r="G29" s="58"/>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B30" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F30" s="57"/>
+      <c r="G30" s="58"/>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B31" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B32" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F32" s="57"/>
+      <c r="G32" s="58"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F33" s="57"/>
+      <c r="G33" s="58"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" s="57"/>
+      <c r="G34" s="58"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F35" s="57"/>
+      <c r="G35" s="58"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="57"/>
+      <c r="G36" s="58"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F37" s="57"/>
+      <c r="G37" s="58"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B38" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F38" s="57"/>
+      <c r="G38" s="58"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B39" s="55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39" s="57"/>
+      <c r="G39" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="110">
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="B38:D38"/>
     <mergeCell ref="E38:G38"/>
     <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
     <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
     <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
     <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
     <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
     <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
     <mergeCell ref="AA24:AD24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
     <mergeCell ref="Q22:AD22"/>
     <mergeCell ref="B23:D23"/>
     <mergeCell ref="E23:G23"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="Q24:S24"/>
     <mergeCell ref="T24:V24"/>
@@ -5116,970 +6156,6 @@
     <mergeCell ref="I8:K8"/>
     <mergeCell ref="L8:N8"/>
     <mergeCell ref="R8:T8"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="I6:K6"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B201D1-35A9-40B2-B7DB-40D7681C1361}">
-  <dimension ref="B1:AD39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19:G19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="18" max="18" width="8.7265625" customWidth="1"/>
-    <col min="30" max="30" width="16.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="65"/>
-      <c r="Q2" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" s="79"/>
-      <c r="W2" s="80"/>
-    </row>
-    <row r="3" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="G3" s="72"/>
-      <c r="H3" s="73"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="Q3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" s="20"/>
-      <c r="T3" s="49"/>
-    </row>
-    <row r="4" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="Q4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4" s="20"/>
-      <c r="T4" s="49"/>
-    </row>
-    <row r="5" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="Q5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="S5" s="20"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="S6" s="20"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="S7" s="20"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-    </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="S8" s="20"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-    </row>
-    <row r="9" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="Q9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R9" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="S9" s="20"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-    </row>
-    <row r="10" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="71" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="72"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="S10" s="50"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-    </row>
-    <row r="11" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>100</v>
-      </c>
-      <c r="F11">
-        <v>110</v>
-      </c>
-      <c r="G11">
-        <v>100</v>
-      </c>
-      <c r="H11">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B13" s="5"/>
-    </row>
-    <row r="15" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA16" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="35"/>
-    </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B17" s="45" t="s">
-        <v>92</v>
-      </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-      <c r="O17" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B18" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="42"/>
-      <c r="G18" s="43"/>
-      <c r="O18" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="3">
-        <v>1</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B19" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
-      <c r="O19" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="3">
-        <v>1</v>
-      </c>
-      <c r="R19" s="3">
-        <v>0</v>
-      </c>
-      <c r="S19" s="3">
-        <v>1</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="4"/>
-    </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B20" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="O20" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>1</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B21" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="O21" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="3">
-        <v>1</v>
-      </c>
-      <c r="R21" s="3">
-        <v>1</v>
-      </c>
-      <c r="S21" s="3">
-        <v>1</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B22" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="O22" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="23"/>
-    </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B23" s="45" t="s">
-        <v>91</v>
-      </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
-      <c r="O23" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="U24" s="29"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="30"/>
-    </row>
-    <row r="25" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
-    </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B26" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
-    </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B27" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
-    </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B28" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
-    </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B29" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B30" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
-    </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B31" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43"/>
-    </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B32" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F32" s="42"/>
-      <c r="G32" s="43"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="45" t="s">
-        <v>100</v>
-      </c>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="42" t="s">
-        <v>102</v>
-      </c>
-      <c r="F34" s="42"/>
-      <c r="G34" s="43"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F35" s="42"/>
-      <c r="G35" s="43"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="42"/>
-      <c r="G36" s="43"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F37" s="42"/>
-      <c r="G37" s="43"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B38" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" s="42"/>
-      <c r="G38" s="43"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="45" t="s">
-        <v>99</v>
-      </c>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="42" t="s">
-        <v>101</v>
-      </c>
-      <c r="F39" s="42"/>
-      <c r="G39" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="110">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U5:W5"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="F6:H6"/>
     <mergeCell ref="I6:K6"/>
@@ -6095,92 +6171,15 @@
     <mergeCell ref="I5:K5"/>
     <mergeCell ref="L5:N5"/>
     <mergeCell ref="R5:T5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="AA16:AD16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="AA24:AD24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="Q22:AD22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U5:W5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6203,144 +6202,144 @@
   <sheetData>
     <row r="1" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="63" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="65"/>
-      <c r="Q2" s="52" t="s">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="48"/>
+      <c r="Q2" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="78" t="s">
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="79"/>
-      <c r="W2" s="80"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="75"/>
     </row>
     <row r="3" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="20" t="s">
+      <c r="D3" s="27"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="27" t="s">
         <v>114</v>
       </c>
-      <c r="G3" s="20"/>
-      <c r="H3" s="49"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
+      <c r="G3" s="27"/>
+      <c r="H3" s="40"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
       <c r="Q3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="20"/>
-      <c r="T3" s="49"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="40"/>
     </row>
     <row r="4" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="71" t="s">
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="72"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
+      <c r="G4" s="67"/>
+      <c r="H4" s="68"/>
+      <c r="I4" s="84"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
       <c r="Q4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="20"/>
-      <c r="T4" s="49"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="40"/>
     </row>
     <row r="5" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
       <c r="Q5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="R5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="20"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
     </row>
     <row r="6" spans="2:30" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="83"/>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="84"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="20"/>
-      <c r="T6" s="49"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="40"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
@@ -6349,26 +6348,26 @@
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="70"/>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="76"/>
+      <c r="G7" s="76"/>
+      <c r="H7" s="76"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="20" t="s">
+      <c r="R7" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="20"/>
-      <c r="T7" s="49"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="40"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
@@ -6377,26 +6376,26 @@
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="76"/>
+      <c r="G8" s="76"/>
+      <c r="H8" s="76"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="20" t="s">
+      <c r="R8" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="20"/>
-      <c r="T8" s="49"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="40"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
@@ -6405,28 +6404,28 @@
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="70"/>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="76"/>
+      <c r="G9" s="76"/>
+      <c r="H9" s="76"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
       <c r="Q9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="R9" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S9" s="20"/>
-      <c r="T9" s="49"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="40"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
@@ -6435,26 +6434,26 @@
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="71"/>
-      <c r="G10" s="72"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="50" t="s">
+      <c r="R10" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="S10" s="50"/>
-      <c r="T10" s="51"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="42"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
@@ -6479,52 +6478,52 @@
     </row>
     <row r="15" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="16" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="48" t="s">
+      <c r="B16" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33" t="s">
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="65"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="34" t="s">
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
       <c r="Z16" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AA16" s="33" t="s">
+      <c r="AA16" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="35"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="23"/>
     </row>
     <row r="17" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="55" t="s">
         <v>109</v>
       </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="42" t="s">
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57" t="s">
         <v>113</v>
       </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
       <c r="O17" s="24" t="s">
         <v>0</v>
       </c>
@@ -6573,11 +6572,11 @@
       </c>
     </row>
     <row r="18" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B18" s="45" t="s">
+      <c r="B18" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
       <c r="E18" s="87" t="s">
         <v>32</v>
       </c>
@@ -6631,16 +6630,16 @@
       </c>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B19" s="44" t="s">
+      <c r="B19" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="42" t="s">
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58"/>
       <c r="O19" s="24" t="s">
         <v>19</v>
       </c>
@@ -6687,16 +6686,16 @@
       <c r="AD19" s="4"/>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B20" s="44" t="s">
+      <c r="B20" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="42" t="s">
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58"/>
       <c r="O20" s="24" t="s">
         <v>20</v>
       </c>
@@ -6745,16 +6744,16 @@
       </c>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="42" t="s">
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
       <c r="O21" s="24" t="s">
         <v>60</v>
       </c>
@@ -6803,46 +6802,46 @@
       </c>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="42" t="s">
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="O22" s="19" t="s">
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
+      <c r="O22" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="23"/>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="30"/>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B23" s="45" t="s">
+      <c r="B23" s="55" t="s">
         <v>111</v>
       </c>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="42" t="s">
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57" t="s">
         <v>120</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
       <c r="O23" s="24" t="s">
         <v>21</v>
       </c>
@@ -6891,257 +6890,159 @@
       </c>
     </row>
     <row r="24" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="55" t="s">
         <v>110</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="42" t="s">
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="28" t="s">
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="U24" s="29"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="28" t="s">
+      <c r="U24" s="34"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="27"/>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="32"/>
       <c r="Z24" s="7"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="30"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="35"/>
     </row>
     <row r="25" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="44"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
     </row>
     <row r="26" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B26" s="44"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
+      <c r="B26" s="59"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
     </row>
     <row r="27" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B27" s="44"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="58"/>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B28" s="44"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B29" s="45"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="58"/>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B30" s="44"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="58"/>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B31" s="44"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43"/>
+      <c r="B31" s="59"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B32" s="44"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="43"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="58"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="44"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="58"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="43"/>
+      <c r="B34" s="55"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="58"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="44"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="43"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="58"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="44"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="43"/>
+      <c r="B36" s="59"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="58"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="44"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="43"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="58"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B38" s="44"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="43"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="58"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="43"/>
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="110">
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="F3:H3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="F6:H6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="F8:H8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:H9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="AA16:AD16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="AA24:AD24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="Q22:AD22"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:S24"/>
-    <mergeCell ref="T24:V24"/>
-    <mergeCell ref="W24:Y24"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="E37:G37"/>
     <mergeCell ref="B38:D38"/>
@@ -7154,931 +7055,17 @@
     <mergeCell ref="E35:G35"/>
     <mergeCell ref="B36:D36"/>
     <mergeCell ref="E36:G36"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E697E3AF-5E19-44B4-8E54-CB57578C03D3}">
-  <dimension ref="B1:AD39"/>
-  <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="18" max="18" width="8.7265625" customWidth="1"/>
-    <col min="30" max="30" width="16.54296875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="2" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="60" t="s">
-        <v>22</v>
-      </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="65"/>
-      <c r="Q2" s="52" t="s">
-        <v>39</v>
-      </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="78" t="s">
-        <v>31</v>
-      </c>
-      <c r="V2" s="79"/>
-      <c r="W2" s="80"/>
-    </row>
-    <row r="3" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="49"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
-      <c r="Q3" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="R3" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="S3" s="20"/>
-      <c r="T3" s="49"/>
-    </row>
-    <row r="4" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="18"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
-      <c r="Q4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="R4" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="S4" s="20"/>
-      <c r="T4" s="49"/>
-    </row>
-    <row r="5" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="18"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
-      <c r="Q5" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="R5" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="S5" s="20"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
-    </row>
-    <row r="6" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="S6" s="20"/>
-      <c r="T6" s="49"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-    </row>
-    <row r="7" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="18"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
-      <c r="Q7" s="2"/>
-      <c r="R7" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="S7" s="20"/>
-      <c r="T7" s="49"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-    </row>
-    <row r="8" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B8" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="18"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="S8" s="20"/>
-      <c r="T8" s="49"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-    </row>
-    <row r="9" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="18"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
-      <c r="Q9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="R9" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="S9" s="20"/>
-      <c r="T9" s="49"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-    </row>
-    <row r="10" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="C10" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="58"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
-      <c r="Q10" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="R10" s="50" t="s">
-        <v>42</v>
-      </c>
-      <c r="S10" s="50"/>
-      <c r="T10" s="51"/>
-      <c r="U10" s="56" t="s">
-        <v>36</v>
-      </c>
-      <c r="V10" s="57"/>
-      <c r="W10" s="58"/>
-    </row>
-    <row r="11" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17" t="s">
-        <v>129</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="12" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B12" s="5"/>
-    </row>
-    <row r="13" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B13" s="5"/>
-      <c r="Q13" t="s">
-        <v>124</v>
-      </c>
-      <c r="R13">
-        <v>2046</v>
-      </c>
-    </row>
-    <row r="15" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="16" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="48" t="s">
-        <v>47</v>
-      </c>
-      <c r="C16" s="40"/>
-      <c r="D16" s="40"/>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="41"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="32"/>
-      <c r="Q16" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="R16" s="33"/>
-      <c r="S16" s="33"/>
-      <c r="T16" s="33" t="s">
-        <v>2</v>
-      </c>
-      <c r="U16" s="33"/>
-      <c r="V16" s="33"/>
-      <c r="W16" s="34" t="s">
-        <v>3</v>
-      </c>
-      <c r="X16" s="33"/>
-      <c r="Y16" s="33"/>
-      <c r="Z16" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="AA16" s="33" t="s">
-        <v>57</v>
-      </c>
-      <c r="AB16" s="33"/>
-      <c r="AC16" s="33"/>
-      <c r="AD16" s="35"/>
-    </row>
-    <row r="17" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B17" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="C17" s="46"/>
-      <c r="D17" s="46"/>
-      <c r="E17" s="42" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" s="42"/>
-      <c r="G17" s="43"/>
-      <c r="O17" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="P17" s="25"/>
-      <c r="Q17" s="3">
-        <v>0</v>
-      </c>
-      <c r="R17" s="3">
-        <v>1</v>
-      </c>
-      <c r="S17" s="3">
-        <v>1</v>
-      </c>
-      <c r="T17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="W17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y17" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z17" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA17" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="4" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="18" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B18" s="45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" s="46"/>
-      <c r="D18" s="46"/>
-      <c r="E18" s="87" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="87"/>
-      <c r="G18" s="88"/>
-      <c r="O18" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="P18" s="25"/>
-      <c r="Q18" s="3">
-        <v>1</v>
-      </c>
-      <c r="R18" s="3">
-        <v>0</v>
-      </c>
-      <c r="S18" s="3">
-        <v>0</v>
-      </c>
-      <c r="T18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="U18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="V18" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y18" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z18" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA18" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC18" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD18" s="4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B19" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
-      <c r="O19" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="P19" s="25"/>
-      <c r="Q19" s="3">
-        <v>1</v>
-      </c>
-      <c r="R19" s="3">
-        <v>0</v>
-      </c>
-      <c r="S19" s="3">
-        <v>1</v>
-      </c>
-      <c r="T19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="U19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Y19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Z19" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB19" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC19" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="4"/>
-    </row>
-    <row r="20" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B20" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="42"/>
-      <c r="G20" s="43"/>
-      <c r="O20" s="24" t="s">
-        <v>20</v>
-      </c>
-      <c r="P20" s="25"/>
-      <c r="Q20" s="3">
-        <v>0</v>
-      </c>
-      <c r="R20" s="3">
-        <v>0</v>
-      </c>
-      <c r="S20" s="3">
-        <v>1</v>
-      </c>
-      <c r="T20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="W20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y20" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z20" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB20" s="3">
-        <v>0</v>
-      </c>
-      <c r="AC20" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B21" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="42" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
-      <c r="O21" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="P21" s="25"/>
-      <c r="Q21" s="3">
-        <v>1</v>
-      </c>
-      <c r="R21" s="3">
-        <v>1</v>
-      </c>
-      <c r="S21" s="3">
-        <v>1</v>
-      </c>
-      <c r="T21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="U21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="V21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="W21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y21" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z21" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AB21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="3">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="22" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B22" s="45" t="s">
-        <v>128</v>
-      </c>
-      <c r="C22" s="46"/>
-      <c r="D22" s="46"/>
-      <c r="E22" s="42" t="s">
-        <v>127</v>
-      </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
-      <c r="O22" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="21"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
-      <c r="U22" s="22"/>
-      <c r="V22" s="22"/>
-      <c r="W22" s="22"/>
-      <c r="X22" s="22"/>
-      <c r="Y22" s="22"/>
-      <c r="Z22" s="22"/>
-      <c r="AA22" s="22"/>
-      <c r="AB22" s="22"/>
-      <c r="AC22" s="22"/>
-      <c r="AD22" s="23"/>
-    </row>
-    <row r="23" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B23" s="45"/>
-      <c r="C23" s="46"/>
-      <c r="D23" s="46"/>
-      <c r="E23" s="42"/>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
-      <c r="O23" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="P23" s="25"/>
-      <c r="Q23" s="3">
-        <v>0</v>
-      </c>
-      <c r="R23" s="3">
-        <v>1</v>
-      </c>
-      <c r="S23" s="3">
-        <v>0</v>
-      </c>
-      <c r="T23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="U23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="V23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="W23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="X23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y23" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="Z23" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="3">
-        <v>0</v>
-      </c>
-      <c r="AD23" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="24" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B24" s="45"/>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
-      <c r="O24" s="26"/>
-      <c r="P24" s="27"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="27"/>
-      <c r="T24" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="U24" s="29"/>
-      <c r="V24" s="27"/>
-      <c r="W24" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="X24" s="29"/>
-      <c r="Y24" s="27"/>
-      <c r="Z24" s="7"/>
-      <c r="AA24" s="28"/>
-      <c r="AB24" s="29"/>
-      <c r="AC24" s="29"/>
-      <c r="AD24" s="30"/>
-    </row>
-    <row r="25" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="44"/>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
-    </row>
-    <row r="26" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B26" s="44"/>
-      <c r="C26" s="38"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
-    </row>
-    <row r="27" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B27" s="44"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
-    </row>
-    <row r="28" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B28" s="44"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
-    </row>
-    <row r="29" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B29" s="45"/>
-      <c r="C29" s="46"/>
-      <c r="D29" s="46"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
-    </row>
-    <row r="30" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B30" s="44"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
-    </row>
-    <row r="31" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B31" s="44"/>
-      <c r="C31" s="38"/>
-      <c r="D31" s="38"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43"/>
-    </row>
-    <row r="32" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B32" s="44"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="43"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="44"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
-    </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="45"/>
-      <c r="C34" s="46"/>
-      <c r="D34" s="46"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="43"/>
-    </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="44"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="43"/>
-    </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="44"/>
-      <c r="C36" s="38"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="43"/>
-    </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="44"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="43"/>
-    </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B38" s="44"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="43"/>
-    </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="45"/>
-      <c r="C39" s="46"/>
-      <c r="D39" s="46"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="43"/>
-    </row>
-  </sheetData>
-  <mergeCells count="104">
-    <mergeCell ref="U2:W2"/>
-    <mergeCell ref="C3:E3"/>
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="R3:T3"/>
-    <mergeCell ref="C4:E4"/>
-    <mergeCell ref="I4:K4"/>
-    <mergeCell ref="L4:N4"/>
-    <mergeCell ref="R4:T4"/>
-    <mergeCell ref="C5:E5"/>
-    <mergeCell ref="I5:K5"/>
-    <mergeCell ref="L5:N5"/>
-    <mergeCell ref="R5:T5"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="F2:N2"/>
-    <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="L7:N7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="I6:K6"/>
-    <mergeCell ref="L6:N6"/>
-    <mergeCell ref="R6:T6"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:H10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="AA16:AD16"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:G17"/>
-    <mergeCell ref="O17:P17"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:G16"/>
-    <mergeCell ref="O16:P16"/>
-    <mergeCell ref="Q16:S16"/>
-    <mergeCell ref="T16:V16"/>
-    <mergeCell ref="W16:Y16"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="B30:D30"/>
     <mergeCell ref="E30:G30"/>
     <mergeCell ref="AA24:AD24"/>
     <mergeCell ref="B25:D25"/>
@@ -8097,6 +7084,938 @@
     <mergeCell ref="Q24:S24"/>
     <mergeCell ref="T24:V24"/>
     <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="AA16:AD16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:H9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F6:H6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="Q2:T2"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="F3:H3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="U5:W5"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E697E3AF-5E19-44B4-8E54-CB57578C03D3}">
+  <dimension ref="B1:AD39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="18" max="18" width="8.7265625" customWidth="1"/>
+    <col min="30" max="30" width="16.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B2" s="43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="46" t="s">
+        <v>31</v>
+      </c>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="48"/>
+      <c r="Q2" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="73" t="s">
+        <v>31</v>
+      </c>
+      <c r="V2" s="74"/>
+      <c r="W2" s="75"/>
+    </row>
+    <row r="3" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D3" s="27"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="18"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="Q3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="R3" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="S3" s="27"/>
+      <c r="T3" s="40"/>
+    </row>
+    <row r="4" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B4" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
+      <c r="F4" s="18"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="Q4" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R4" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="S4" s="27"/>
+      <c r="T4" s="40"/>
+    </row>
+    <row r="5" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B5" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D5" s="27"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
+      <c r="Q5" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="R5" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="S5" s="27"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+    </row>
+    <row r="6" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B6" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="27"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="18"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="S6" s="27"/>
+      <c r="T6" s="40"/>
+      <c r="U6" s="5"/>
+      <c r="V6" s="5"/>
+      <c r="W6" s="5"/>
+    </row>
+    <row r="7" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B7" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="27"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="18"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="S7" s="27"/>
+      <c r="T7" s="40"/>
+      <c r="U7" s="5"/>
+      <c r="V7" s="5"/>
+      <c r="W7" s="5"/>
+    </row>
+    <row r="8" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="27"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="18"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="S8" s="27"/>
+      <c r="T8" s="40"/>
+      <c r="U8" s="5"/>
+      <c r="V8" s="5"/>
+      <c r="W8" s="5"/>
+    </row>
+    <row r="9" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="27"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
+      <c r="Q9" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R9" s="27" t="s">
+        <v>42</v>
+      </c>
+      <c r="S9" s="27"/>
+      <c r="T9" s="40"/>
+      <c r="U9" s="5"/>
+      <c r="V9" s="5"/>
+      <c r="W9" s="5"/>
+    </row>
+    <row r="10" spans="2:30" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B10" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="41" t="s">
+        <v>38</v>
+      </c>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G10" s="37"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
+      <c r="Q10" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="R10" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="S10" s="41"/>
+      <c r="T10" s="42"/>
+      <c r="U10" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="V10" s="37"/>
+      <c r="W10" s="38"/>
+    </row>
+    <row r="11" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B11" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B12" s="5"/>
+    </row>
+    <row r="13" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B13" s="5"/>
+      <c r="Q13" t="s">
+        <v>124</v>
+      </c>
+      <c r="R13">
+        <v>2046</v>
+      </c>
+    </row>
+    <row r="15" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="16" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B16" s="53" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="54"/>
+      <c r="D16" s="54"/>
+      <c r="E16" s="54"/>
+      <c r="F16" s="54"/>
+      <c r="G16" s="65"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="20"/>
+      <c r="Q16" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA16" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="23"/>
+    </row>
+    <row r="17" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B17" s="55" t="s">
+        <v>125</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="57"/>
+      <c r="G17" s="58"/>
+      <c r="O17" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="P17" s="25"/>
+      <c r="Q17" s="3">
+        <v>0</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1</v>
+      </c>
+      <c r="T17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y17" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z17" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B18" s="55" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="56"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="87" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="87"/>
+      <c r="G18" s="88"/>
+      <c r="O18" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="25"/>
+      <c r="Q18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="3">
+        <v>0</v>
+      </c>
+      <c r="S18" s="3">
+        <v>0</v>
+      </c>
+      <c r="T18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V18" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y18" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD18" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="19" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B19" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="60"/>
+      <c r="D19" s="60"/>
+      <c r="E19" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58"/>
+      <c r="O19" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="P19" s="25"/>
+      <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+      <c r="R19" s="3">
+        <v>0</v>
+      </c>
+      <c r="S19" s="3">
+        <v>1</v>
+      </c>
+      <c r="T19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="X19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y19" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z19" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="4"/>
+    </row>
+    <row r="20" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B20" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" s="60"/>
+      <c r="D20" s="60"/>
+      <c r="E20" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="57"/>
+      <c r="G20" s="58"/>
+      <c r="O20" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="P20" s="25"/>
+      <c r="Q20" s="3">
+        <v>0</v>
+      </c>
+      <c r="R20" s="3">
+        <v>0</v>
+      </c>
+      <c r="S20" s="3">
+        <v>1</v>
+      </c>
+      <c r="T20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y20" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z20" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB20" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC20" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="4" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B21" s="59" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="57" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
+      <c r="O21" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" s="25"/>
+      <c r="Q21" s="3">
+        <v>1</v>
+      </c>
+      <c r="R21" s="3">
+        <v>1</v>
+      </c>
+      <c r="S21" s="3">
+        <v>1</v>
+      </c>
+      <c r="T21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="V21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y21" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z21" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B22" s="55" t="s">
+        <v>128</v>
+      </c>
+      <c r="C22" s="56"/>
+      <c r="D22" s="56"/>
+      <c r="E22" s="57" t="s">
+        <v>127</v>
+      </c>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
+      <c r="O22" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="P22" s="27"/>
+      <c r="Q22" s="28"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="30"/>
+    </row>
+    <row r="23" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B23" s="55"/>
+      <c r="C23" s="56"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
+      <c r="O23" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="25"/>
+      <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
+        <v>1</v>
+      </c>
+      <c r="S23" s="3">
+        <v>0</v>
+      </c>
+      <c r="T23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="V23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="W23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="X23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z23" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AB23" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="3">
+        <v>0</v>
+      </c>
+      <c r="AD23" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="24" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B24" s="55"/>
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="32"/>
+      <c r="Q24" s="33"/>
+      <c r="R24" s="34"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="U24" s="34"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="X24" s="34"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="7"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
+      <c r="AD24" s="35"/>
+    </row>
+    <row r="25" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="59"/>
+      <c r="C25" s="60"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
+    </row>
+    <row r="26" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B26" s="59"/>
+      <c r="C26" s="60"/>
+      <c r="D26" s="60"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
+    </row>
+    <row r="27" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B27" s="59"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="58"/>
+    </row>
+    <row r="28" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
+    </row>
+    <row r="29" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B29" s="55"/>
+      <c r="C29" s="56"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="58"/>
+    </row>
+    <row r="30" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B30" s="59"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="58"/>
+    </row>
+    <row r="31" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B31" s="59"/>
+      <c r="C31" s="60"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
+    </row>
+    <row r="32" spans="2:30" x14ac:dyDescent="0.35">
+      <c r="B32" s="59"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="58"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B33" s="59"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="58"/>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B34" s="55"/>
+      <c r="C34" s="56"/>
+      <c r="D34" s="56"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="58"/>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B35" s="59"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="58"/>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B36" s="59"/>
+      <c r="C36" s="60"/>
+      <c r="D36" s="60"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="58"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B37" s="59"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="58"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B38" s="59"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="58"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.35">
+      <c r="B39" s="55"/>
+      <c r="C39" s="56"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="58"/>
+    </row>
+  </sheetData>
+  <mergeCells count="104">
     <mergeCell ref="U10:W10"/>
     <mergeCell ref="B37:D37"/>
     <mergeCell ref="E37:G37"/>
@@ -8121,6 +8040,86 @@
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="E29:G29"/>
     <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="AA24:AD24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="Q22:AD22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:S24"/>
+    <mergeCell ref="T24:V24"/>
+    <mergeCell ref="W24:Y24"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="AA16:AD16"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:G17"/>
+    <mergeCell ref="O17:P17"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:G16"/>
+    <mergeCell ref="O16:P16"/>
+    <mergeCell ref="Q16:S16"/>
+    <mergeCell ref="T16:V16"/>
+    <mergeCell ref="W16:Y16"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R9:T9"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:H10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="L7:N7"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="I6:K6"/>
+    <mergeCell ref="L6:N6"/>
+    <mergeCell ref="R6:T6"/>
+    <mergeCell ref="U2:W2"/>
+    <mergeCell ref="C3:E3"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="R3:T3"/>
+    <mergeCell ref="C4:E4"/>
+    <mergeCell ref="I4:K4"/>
+    <mergeCell ref="L4:N4"/>
+    <mergeCell ref="R4:T4"/>
+    <mergeCell ref="C5:E5"/>
+    <mergeCell ref="I5:K5"/>
+    <mergeCell ref="L5:N5"/>
+    <mergeCell ref="R5:T5"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="F2:N2"/>
+    <mergeCell ref="Q2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8132,7 +8131,7 @@
   <dimension ref="B1:AD41"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -8143,142 +8142,142 @@
   <sheetData>
     <row r="1" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="2" spans="2:23" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B2" s="60" t="s">
+      <c r="B2" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="63" t="s">
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="65"/>
-      <c r="Q2" s="52" t="s">
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="47"/>
+      <c r="K2" s="47"/>
+      <c r="L2" s="47"/>
+      <c r="M2" s="47"/>
+      <c r="N2" s="48"/>
+      <c r="Q2" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="35"/>
-      <c r="U2" s="78" t="s">
+      <c r="R2" s="21"/>
+      <c r="S2" s="21"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="73" t="s">
         <v>31</v>
       </c>
-      <c r="V2" s="79"/>
-      <c r="W2" s="80"/>
+      <c r="V2" s="74"/>
+      <c r="W2" s="75"/>
     </row>
     <row r="3" spans="2:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
+      <c r="D3" s="27"/>
+      <c r="E3" s="28"/>
       <c r="F3" s="18"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="L3" s="70"/>
-      <c r="M3" s="70"/>
-      <c r="N3" s="70"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
       <c r="Q3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="R3" s="20" t="s">
+      <c r="R3" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="20"/>
-      <c r="T3" s="49"/>
+      <c r="S3" s="27"/>
+      <c r="T3" s="40"/>
     </row>
     <row r="4" spans="2:23" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B4" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="20" t="s">
+      <c r="C4" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D4" s="20"/>
-      <c r="E4" s="21"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="28"/>
       <c r="F4" s="18"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="K4" s="70"/>
-      <c r="L4" s="70"/>
-      <c r="M4" s="70"/>
-      <c r="N4" s="70"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
       <c r="Q4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S4" s="20"/>
-      <c r="T4" s="49"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="40"/>
     </row>
     <row r="5" spans="2:23" ht="15.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D5" s="20"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="56" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="36" t="s">
         <v>35</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="58"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="K5" s="70"/>
-      <c r="L5" s="70"/>
-      <c r="M5" s="70"/>
-      <c r="N5" s="70"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="76"/>
+      <c r="N5" s="76"/>
       <c r="Q5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="R5" s="20" t="s">
+      <c r="R5" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S5" s="20"/>
-      <c r="T5" s="49"/>
-      <c r="U5" s="70"/>
-      <c r="V5" s="70"/>
-      <c r="W5" s="70"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="40"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
     </row>
     <row r="6" spans="2:23" ht="15" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="49"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="40"/>
       <c r="F6" s="18"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="K6" s="70"/>
-      <c r="L6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="76"/>
+      <c r="L6" s="76"/>
+      <c r="M6" s="76"/>
+      <c r="N6" s="76"/>
       <c r="Q6" s="2"/>
-      <c r="R6" s="20" t="s">
+      <c r="R6" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S6" s="20"/>
-      <c r="T6" s="49"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="40"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
       <c r="W6" s="5"/>
@@ -8287,26 +8286,26 @@
       <c r="B7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="20" t="s">
+      <c r="C7" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D7" s="20"/>
-      <c r="E7" s="49"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="40"/>
       <c r="F7" s="18"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="K7" s="70"/>
-      <c r="L7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
+      <c r="I7" s="76"/>
+      <c r="J7" s="76"/>
+      <c r="K7" s="76"/>
+      <c r="L7" s="76"/>
+      <c r="M7" s="76"/>
+      <c r="N7" s="76"/>
       <c r="Q7" s="2"/>
-      <c r="R7" s="20" t="s">
+      <c r="R7" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S7" s="20"/>
-      <c r="T7" s="49"/>
+      <c r="S7" s="27"/>
+      <c r="T7" s="40"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
       <c r="W7" s="5"/>
@@ -8315,26 +8314,26 @@
       <c r="B8" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="20"/>
-      <c r="E8" s="49"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="40"/>
       <c r="F8" s="18"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="K8" s="70"/>
-      <c r="L8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="76"/>
+      <c r="L8" s="76"/>
+      <c r="M8" s="76"/>
+      <c r="N8" s="76"/>
       <c r="Q8" s="2"/>
-      <c r="R8" s="20" t="s">
+      <c r="R8" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S8" s="20"/>
-      <c r="T8" s="49"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="40"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
       <c r="W8" s="5"/>
@@ -8343,28 +8342,28 @@
       <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="49"/>
+      <c r="D9" s="27"/>
+      <c r="E9" s="40"/>
       <c r="F9" s="18"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="70"/>
-      <c r="L9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
+      <c r="I9" s="76"/>
+      <c r="J9" s="76"/>
+      <c r="K9" s="76"/>
+      <c r="L9" s="76"/>
+      <c r="M9" s="76"/>
+      <c r="N9" s="76"/>
       <c r="Q9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="R9" s="20" t="s">
+      <c r="R9" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="S9" s="20"/>
-      <c r="T9" s="49"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="40"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
       <c r="W9" s="5"/>
@@ -8373,26 +8372,26 @@
       <c r="B10" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C10" s="50" t="s">
+      <c r="C10" s="41" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="50"/>
-      <c r="E10" s="51"/>
+      <c r="D10" s="41"/>
+      <c r="E10" s="42"/>
       <c r="F10" s="18"/>
       <c r="G10" s="1"/>
       <c r="H10" s="18"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-      <c r="K10" s="70"/>
-      <c r="L10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
+      <c r="I10" s="76"/>
+      <c r="J10" s="76"/>
+      <c r="K10" s="76"/>
+      <c r="L10" s="76"/>
+      <c r="M10" s="76"/>
+      <c r="N10" s="76"/>
       <c r="Q10" s="6"/>
-      <c r="R10" s="50" t="s">
+      <c r="R10" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="S10" s="50"/>
-      <c r="T10" s="51"/>
+      <c r="S10" s="41"/>
+      <c r="T10" s="42"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
       <c r="W10" s="5"/>
@@ -8419,73 +8418,73 @@
       <c r="B14" s="5" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="70" t="s">
+      <c r="C14" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="70"/>
-      <c r="E14" s="70"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="76"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.35">
       <c r="B15" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="C15" s="70" t="s">
+      <c r="C15" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="70"/>
-      <c r="E15" s="70"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="76"/>
       <c r="Q15" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="17" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
     <row r="18" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="48" t="s">
+      <c r="B18" s="53" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="40"/>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="41"/>
-      <c r="O18" s="31"/>
-      <c r="P18" s="32"/>
-      <c r="Q18" s="33" t="s">
-        <v>1</v>
-      </c>
-      <c r="R18" s="33"/>
-      <c r="S18" s="33"/>
-      <c r="T18" s="33" t="s">
+      <c r="C18" s="54"/>
+      <c r="D18" s="54"/>
+      <c r="E18" s="54"/>
+      <c r="F18" s="54"/>
+      <c r="G18" s="65"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="20"/>
+      <c r="Q18" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="R18" s="21"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="U18" s="33"/>
-      <c r="V18" s="33"/>
-      <c r="W18" s="34" t="s">
+      <c r="U18" s="21"/>
+      <c r="V18" s="21"/>
+      <c r="W18" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="X18" s="33"/>
-      <c r="Y18" s="33"/>
+      <c r="X18" s="21"/>
+      <c r="Y18" s="21"/>
       <c r="Z18" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="AA18" s="33" t="s">
+      <c r="AA18" s="21" t="s">
         <v>57</v>
       </c>
-      <c r="AB18" s="33"/>
-      <c r="AC18" s="33"/>
-      <c r="AD18" s="35"/>
+      <c r="AB18" s="21"/>
+      <c r="AC18" s="21"/>
+      <c r="AD18" s="23"/>
     </row>
     <row r="19" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="55" t="s">
         <v>130</v>
       </c>
-      <c r="C19" s="46"/>
-      <c r="D19" s="46"/>
-      <c r="E19" s="42" t="s">
+      <c r="C19" s="56"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="F19" s="42"/>
-      <c r="G19" s="43"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="58"/>
       <c r="O19" s="24" t="s">
         <v>0</v>
       </c>
@@ -8534,11 +8533,11 @@
       </c>
     </row>
     <row r="20" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="46"/>
-      <c r="D20" s="46"/>
+      <c r="C20" s="56"/>
+      <c r="D20" s="56"/>
       <c r="E20" s="87" t="s">
         <v>38</v>
       </c>
@@ -8592,16 +8591,16 @@
       </c>
     </row>
     <row r="21" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B21" s="44" t="s">
+      <c r="B21" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C21" s="38"/>
-      <c r="D21" s="38"/>
-      <c r="E21" s="42" t="s">
+      <c r="C21" s="60"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="F21" s="42"/>
-      <c r="G21" s="43"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="58"/>
       <c r="O21" s="24" t="s">
         <v>19</v>
       </c>
@@ -8648,16 +8647,16 @@
       <c r="AD21" s="4"/>
     </row>
     <row r="22" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B22" s="44" t="s">
+      <c r="B22" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="42" t="s">
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="F22" s="42"/>
-      <c r="G22" s="43"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="58"/>
       <c r="O22" s="24" t="s">
         <v>20</v>
       </c>
@@ -8706,16 +8705,16 @@
       </c>
     </row>
     <row r="23" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B23" s="44" t="s">
+      <c r="B23" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="38"/>
-      <c r="D23" s="38"/>
-      <c r="E23" s="42" t="s">
+      <c r="C23" s="60"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="F23" s="42"/>
-      <c r="G23" s="43"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="58"/>
       <c r="O23" s="24" t="s">
         <v>60</v>
       </c>
@@ -8764,42 +8763,42 @@
       </c>
     </row>
     <row r="24" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B24" s="45" t="s">
+      <c r="B24" s="55" t="s">
         <v>133</v>
       </c>
-      <c r="C24" s="46"/>
-      <c r="D24" s="46"/>
-      <c r="E24" s="42" t="s">
+      <c r="C24" s="56"/>
+      <c r="D24" s="56"/>
+      <c r="E24" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
-      <c r="O24" s="19" t="s">
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
+      <c r="O24" s="26" t="s">
         <v>63</v>
       </c>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="21"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
-      <c r="V24" s="22"/>
-      <c r="W24" s="22"/>
-      <c r="X24" s="22"/>
-      <c r="Y24" s="22"/>
-      <c r="Z24" s="22"/>
-      <c r="AA24" s="22"/>
-      <c r="AB24" s="22"/>
-      <c r="AC24" s="22"/>
-      <c r="AD24" s="23"/>
+      <c r="P24" s="27"/>
+      <c r="Q24" s="28"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="30"/>
     </row>
     <row r="25" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B25" s="45"/>
-      <c r="C25" s="46"/>
-      <c r="D25" s="46"/>
-      <c r="E25" s="42"/>
-      <c r="F25" s="42"/>
-      <c r="G25" s="43"/>
+      <c r="B25" s="55"/>
+      <c r="C25" s="56"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="58"/>
       <c r="O25" s="24" t="s">
         <v>21</v>
       </c>
@@ -8848,155 +8847,236 @@
       </c>
     </row>
     <row r="26" spans="2:30" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="B26" s="45"/>
-      <c r="C26" s="46"/>
-      <c r="D26" s="46"/>
-      <c r="E26" s="42"/>
-      <c r="F26" s="42"/>
-      <c r="G26" s="43"/>
-      <c r="O26" s="26"/>
-      <c r="P26" s="27"/>
-      <c r="Q26" s="28"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="27"/>
-      <c r="T26" s="28" t="s">
+      <c r="B26" s="55"/>
+      <c r="C26" s="56"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="57"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="58"/>
+      <c r="O26" s="31"/>
+      <c r="P26" s="32"/>
+      <c r="Q26" s="33"/>
+      <c r="R26" s="34"/>
+      <c r="S26" s="32"/>
+      <c r="T26" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="U26" s="29"/>
-      <c r="V26" s="27"/>
-      <c r="W26" s="28" t="s">
+      <c r="U26" s="34"/>
+      <c r="V26" s="32"/>
+      <c r="W26" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="X26" s="29"/>
-      <c r="Y26" s="27"/>
+      <c r="X26" s="34"/>
+      <c r="Y26" s="32"/>
       <c r="Z26" s="7"/>
-      <c r="AA26" s="28"/>
-      <c r="AB26" s="29"/>
-      <c r="AC26" s="29"/>
-      <c r="AD26" s="30"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
+      <c r="AD26" s="35"/>
     </row>
     <row r="27" spans="2:30" ht="15" thickTop="1" x14ac:dyDescent="0.35">
-      <c r="B27" s="44"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="43"/>
+      <c r="B27" s="59"/>
+      <c r="C27" s="60"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="58"/>
     </row>
     <row r="28" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B28" s="44"/>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="42"/>
-      <c r="F28" s="42"/>
-      <c r="G28" s="43"/>
+      <c r="B28" s="59"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="57"/>
+      <c r="F28" s="57"/>
+      <c r="G28" s="58"/>
     </row>
     <row r="29" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B29" s="44"/>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="42"/>
-      <c r="F29" s="42"/>
-      <c r="G29" s="43"/>
+      <c r="B29" s="59"/>
+      <c r="C29" s="60"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="58"/>
     </row>
     <row r="30" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B30" s="44"/>
-      <c r="C30" s="38"/>
-      <c r="D30" s="38"/>
-      <c r="E30" s="42"/>
-      <c r="F30" s="42"/>
-      <c r="G30" s="43"/>
+      <c r="B30" s="59"/>
+      <c r="C30" s="60"/>
+      <c r="D30" s="60"/>
+      <c r="E30" s="57"/>
+      <c r="F30" s="57"/>
+      <c r="G30" s="58"/>
     </row>
     <row r="31" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B31" s="45"/>
-      <c r="C31" s="46"/>
-      <c r="D31" s="46"/>
-      <c r="E31" s="42"/>
-      <c r="F31" s="42"/>
-      <c r="G31" s="43"/>
+      <c r="B31" s="55"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="57"/>
+      <c r="G31" s="58"/>
     </row>
     <row r="32" spans="2:30" x14ac:dyDescent="0.35">
-      <c r="B32" s="44"/>
-      <c r="C32" s="38"/>
-      <c r="D32" s="38"/>
-      <c r="E32" s="42"/>
-      <c r="F32" s="42"/>
-      <c r="G32" s="43"/>
+      <c r="B32" s="59"/>
+      <c r="C32" s="60"/>
+      <c r="D32" s="60"/>
+      <c r="E32" s="57"/>
+      <c r="F32" s="57"/>
+      <c r="G32" s="58"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B33" s="44"/>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
-      <c r="E33" s="42"/>
-      <c r="F33" s="42"/>
-      <c r="G33" s="43"/>
+      <c r="B33" s="59"/>
+      <c r="C33" s="60"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="57"/>
+      <c r="G33" s="58"/>
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B34" s="44"/>
-      <c r="C34" s="38"/>
-      <c r="D34" s="38"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="43"/>
+      <c r="B34" s="59"/>
+      <c r="C34" s="60"/>
+      <c r="D34" s="60"/>
+      <c r="E34" s="57"/>
+      <c r="F34" s="57"/>
+      <c r="G34" s="58"/>
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B35" s="44"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="43"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="57"/>
+      <c r="G35" s="58"/>
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B36" s="45"/>
-      <c r="C36" s="46"/>
-      <c r="D36" s="46"/>
-      <c r="E36" s="42"/>
-      <c r="F36" s="42"/>
-      <c r="G36" s="43"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="56"/>
+      <c r="D36" s="56"/>
+      <c r="E36" s="57"/>
+      <c r="F36" s="57"/>
+      <c r="G36" s="58"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B37" s="44"/>
-      <c r="C37" s="38"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42"/>
-      <c r="G37" s="43"/>
+      <c r="B37" s="59"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="57"/>
+      <c r="F37" s="57"/>
+      <c r="G37" s="58"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B38" s="44"/>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="42"/>
-      <c r="F38" s="42"/>
-      <c r="G38" s="43"/>
+      <c r="B38" s="59"/>
+      <c r="C38" s="60"/>
+      <c r="D38" s="60"/>
+      <c r="E38" s="57"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="58"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B39" s="44"/>
-      <c r="C39" s="38"/>
-      <c r="D39" s="38"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="43"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="57"/>
+      <c r="G39" s="58"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B40" s="44"/>
-      <c r="C40" s="38"/>
-      <c r="D40" s="38"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="43"/>
+      <c r="B40" s="59"/>
+      <c r="C40" s="60"/>
+      <c r="D40" s="60"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="58"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.35">
-      <c r="B41" s="45"/>
-      <c r="C41" s="46"/>
-      <c r="D41" s="46"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="42"/>
-      <c r="G41" s="43"/>
+      <c r="B41" s="55"/>
+      <c r="C41" s="56"/>
+      <c r="D41" s="56"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="57"/>
+      <c r="G41" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="105">
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="B36:D36"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="E37:G37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="E38:G38"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="E34:G34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="E30:G30"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:G31"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="E32:G32"/>
+    <mergeCell ref="AA26:AD26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="E27:G27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="E28:G28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="E29:G29"/>
+    <mergeCell ref="Q24:AD24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:G26"/>
+    <mergeCell ref="O26:P26"/>
+    <mergeCell ref="Q26:S26"/>
+    <mergeCell ref="T26:V26"/>
+    <mergeCell ref="W26:Y26"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="E23:G23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="B21:D21"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="O21:P21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="E22:G22"/>
+    <mergeCell ref="O22:P22"/>
+    <mergeCell ref="AA18:AD18"/>
+    <mergeCell ref="B19:D19"/>
+    <mergeCell ref="E19:G19"/>
+    <mergeCell ref="O19:P19"/>
+    <mergeCell ref="B20:D20"/>
+    <mergeCell ref="E20:G20"/>
+    <mergeCell ref="O20:P20"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:G18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:S18"/>
+    <mergeCell ref="T18:V18"/>
+    <mergeCell ref="W18:Y18"/>
+    <mergeCell ref="R7:T7"/>
+    <mergeCell ref="F5:H5"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="L10:N10"/>
+    <mergeCell ref="R10:T10"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="L8:N8"/>
+    <mergeCell ref="R8:T8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="L9:N9"/>
+    <mergeCell ref="R9:T9"/>
     <mergeCell ref="U2:W2"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="L3:N3"/>
@@ -9021,87 +9101,6 @@
     <mergeCell ref="C7:E7"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="L7:N7"/>
-    <mergeCell ref="R7:T7"/>
-    <mergeCell ref="F5:H5"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="L10:N10"/>
-    <mergeCell ref="R10:T10"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="L8:N8"/>
-    <mergeCell ref="R8:T8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="L9:N9"/>
-    <mergeCell ref="R9:T9"/>
-    <mergeCell ref="AA18:AD18"/>
-    <mergeCell ref="B19:D19"/>
-    <mergeCell ref="E19:G19"/>
-    <mergeCell ref="O19:P19"/>
-    <mergeCell ref="B20:D20"/>
-    <mergeCell ref="E20:G20"/>
-    <mergeCell ref="O20:P20"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:G18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:S18"/>
-    <mergeCell ref="T18:V18"/>
-    <mergeCell ref="W18:Y18"/>
-    <mergeCell ref="B23:D23"/>
-    <mergeCell ref="E23:G23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="B21:D21"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="O21:P21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="E22:G22"/>
-    <mergeCell ref="O22:P22"/>
-    <mergeCell ref="E32:G32"/>
-    <mergeCell ref="AA26:AD26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="E27:G27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="E28:G28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="E29:G29"/>
-    <mergeCell ref="Q24:AD24"/>
-    <mergeCell ref="B25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:G26"/>
-    <mergeCell ref="O26:P26"/>
-    <mergeCell ref="Q26:S26"/>
-    <mergeCell ref="T26:V26"/>
-    <mergeCell ref="W26:Y26"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="E39:G39"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="E40:G40"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="B36:D36"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="E37:G37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="E38:G38"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="B34:D34"/>
-    <mergeCell ref="E34:G34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="E30:G30"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:G31"/>
-    <mergeCell ref="B32:D32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
